--- a/Replication Package/Code and Data/(1) Data/Public Data/Regression_Data.xlsx
+++ b/Replication Package/Code and Data/(1) Data/Public Data/Regression_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelboocker/Dropbox/Bernanke_Blanchard/AEJ Macro/Replication Package/Code and Data/(1) Data/Public Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnathansun/Documents/ec1499/Replication Package/Code and Data/(1) Data/Public Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198E032F-1FBF-3746-B9CB-8F26988606A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56970EE-8A19-A241-9DAA-609338DB4A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25080" windowHeight="19300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="25080" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="367">
   <si>
     <t>Date</t>
   </si>
@@ -1117,6 +1117,24 @@
   </si>
   <si>
     <t>DNRGRC1M027SBEA</t>
+  </si>
+  <si>
+    <t>TCU</t>
+  </si>
+  <si>
+    <t>NGDPPOT</t>
+  </si>
+  <si>
+    <t>https://fred.stlouisfed.org/series/TCU</t>
+  </si>
+  <si>
+    <t>https://fred.stlouisfed.org/series/NGDPPOT</t>
+  </si>
+  <si>
+    <t>Nominal Potential Gross Domestic Product, Billions of Dollars, Not Seasonally Adjusted</t>
+  </si>
+  <si>
+    <t>Capacity Utilization: Total Index, Percent, Seasonally Adjusted</t>
   </si>
 </sst>
 </file>
@@ -1175,7 +1193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1190,6 +1208,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1209,9 +1230,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1249,7 +1270,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1355,7 +1376,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1497,7 +1518,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1505,10 +1526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P309"/>
+  <dimension ref="A1:R309"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1520,7 +1541,7 @@
     <col min="15" max="15" width="13" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1569,8 +1590,14 @@
       <c r="P1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" t="s">
+        <v>361</v>
+      </c>
+      <c r="R1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1607,8 +1634,11 @@
       <c r="L2" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R2">
+        <v>274.03395189999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1645,8 +1675,11 @@
       <c r="L3" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R3">
+        <v>276.282610699999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1683,8 +1716,11 @@
       <c r="L4" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R4">
+        <v>278.32913769999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1721,8 +1757,11 @@
       <c r="L5" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R5">
+        <v>282.05581599999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -1759,8 +1798,11 @@
       <c r="L6" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R6">
+        <v>284.9172681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -1797,8 +1839,11 @@
       <c r="L7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R7">
+        <v>289.75882200000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -1835,8 +1880,11 @@
       <c r="L8" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R8">
+        <v>299.9053002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -1873,8 +1921,11 @@
       <c r="L9" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R9">
+        <v>309.42480599999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -1911,8 +1962,11 @@
       <c r="L10" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R10">
+        <v>274.03395189999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1949,8 +2003,11 @@
       <c r="L11" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R11">
+        <v>276.282610699999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -1987,8 +2044,11 @@
       <c r="L12" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R12">
+        <v>278.32913769999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -2025,8 +2085,11 @@
       <c r="L13" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R13">
+        <v>282.05581599999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="L14" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R14">
+        <v>284.9172681</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -2101,8 +2167,11 @@
       <c r="L15" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R15">
+        <v>289.75882200000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -2139,8 +2208,11 @@
       <c r="L16" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R16">
+        <v>299.9053002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -2177,8 +2249,11 @@
       <c r="L17" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R17">
+        <v>309.42480599999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -2215,8 +2290,11 @@
       <c r="L18" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R18">
+        <v>324.78041230000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -2253,8 +2331,11 @@
       <c r="L19" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R19">
+        <v>331.10700680000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -2291,8 +2372,11 @@
       <c r="L20" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R20">
+        <v>335.69209319999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -2329,8 +2413,11 @@
       <c r="L21" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R21">
+        <v>344.27423449999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -2367,8 +2454,11 @@
       <c r="L22" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R22">
+        <v>349.06386909999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -2405,8 +2495,11 @@
       <c r="L23" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R23">
+        <v>354.91234739999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -2443,8 +2536,11 @@
       <c r="L24" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R24">
+        <v>364.19283610000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -2481,8 +2577,11 @@
       <c r="L25" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R25">
+        <v>370.18965980000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>71</v>
       </c>
@@ -2519,8 +2618,11 @@
       <c r="L26" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R26">
+        <v>374.72424580000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -2557,8 +2659,11 @@
       <c r="L27" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R27">
+        <v>379.27924960000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>73</v>
       </c>
@@ -2595,8 +2700,11 @@
       <c r="L28" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R28">
+        <v>384.24130709999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -2633,8 +2741,11 @@
       <c r="L29" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R29">
+        <v>387.80310319999899</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -2671,8 +2782,11 @@
       <c r="L30" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R30">
+        <v>391.58631209999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -2709,8 +2823,11 @@
       <c r="L31" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R31">
+        <v>394.377232899999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -2747,8 +2864,11 @@
       <c r="L32" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R32">
+        <v>397.23815089999903</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -2785,8 +2905,11 @@
       <c r="L33" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R33">
+        <v>400.71779550000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -2823,8 +2946,11 @@
       <c r="L34" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R34">
+        <v>405.07335310000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -2861,8 +2987,11 @@
       <c r="L35" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R35">
+        <v>409.3027161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -2899,8 +3028,11 @@
       <c r="L36" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R36">
+        <v>414.7646833</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3069,11 @@
       <c r="L37" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R37">
+        <v>421.60684939999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -2975,8 +3110,11 @@
       <c r="L38" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R38">
+        <v>428.51509160000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -3013,8 +3151,11 @@
       <c r="L39" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R39">
+        <v>433.76347629999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -3051,8 +3192,11 @@
       <c r="L40" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R40">
+        <v>442.040699799999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -3089,8 +3233,11 @@
       <c r="L41" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R41">
+        <v>446.884661899999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -3127,8 +3274,11 @@
       <c r="L42" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R42">
+        <v>456.4146738</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>88</v>
       </c>
@@ -3165,8 +3315,11 @@
       <c r="L43" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R43">
+        <v>463.30276509999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -3203,8 +3356,11 @@
       <c r="L44" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R44">
+        <v>470.10519210000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>90</v>
       </c>
@@ -3241,8 +3397,11 @@
       <c r="L45" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R45">
+        <v>474.65665610000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -3279,8 +3438,11 @@
       <c r="L46" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R46">
+        <v>483.94204309999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -3317,8 +3479,11 @@
       <c r="L47" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R47">
+        <v>489.71927840000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -3355,8 +3520,11 @@
       <c r="L48" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R48">
+        <v>496.9991958</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>94</v>
       </c>
@@ -3393,8 +3561,11 @@
       <c r="L49" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R49">
+        <v>504.08723219999899</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>95</v>
       </c>
@@ -3434,8 +3605,11 @@
       <c r="M50" s="7">
         <v>15.189</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R50">
+        <v>510.002898799999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>96</v>
       </c>
@@ -3475,8 +3649,11 @@
       <c r="M51" s="7">
         <v>15.271000000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R51">
+        <v>516.00707829999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -3516,8 +3693,11 @@
       <c r="M52" s="7">
         <v>15.365</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R52">
+        <v>523.42420300000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>98</v>
       </c>
@@ -3557,8 +3737,11 @@
       <c r="M53" s="7">
         <v>15.43</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R53">
+        <v>531.13224960000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>99</v>
       </c>
@@ -3598,8 +3781,11 @@
       <c r="M54" s="7">
         <v>15.446</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R54">
+        <v>538.91687679999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>100</v>
       </c>
@@ -3639,8 +3825,11 @@
       <c r="M55" s="7">
         <v>15.525</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R55">
+        <v>545.92411949999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>101</v>
       </c>
@@ -3680,8 +3869,11 @@
       <c r="M56" s="7">
         <v>15.587999999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R56">
+        <v>553.28037710000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -3721,8 +3913,11 @@
       <c r="M57" s="7">
         <v>15.662000000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R57">
+        <v>560.24756190000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>103</v>
       </c>
@@ -3762,8 +3957,11 @@
       <c r="M58" s="7">
         <v>15.67</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R58">
+        <v>566.680222799999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>104</v>
       </c>
@@ -3803,8 +4001,11 @@
       <c r="M59" s="7">
         <v>15.677</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R59">
+        <v>572.90945939999995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>105</v>
       </c>
@@ -3844,8 +4045,11 @@
       <c r="M60" s="7">
         <v>15.742000000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R60">
+        <v>579.59011720000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>106</v>
       </c>
@@ -3885,8 +4089,11 @@
       <c r="M61" s="7">
         <v>15.746</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R61">
+        <v>586.66786879999995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>107</v>
       </c>
@@ -3926,8 +4133,11 @@
       <c r="M62" s="7">
         <v>15.839</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R62">
+        <v>595.44018849999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>108</v>
       </c>
@@ -3967,8 +4177,11 @@
       <c r="M63" s="7">
         <v>15.877000000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R63">
+        <v>602.69836239999995</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>109</v>
       </c>
@@ -4008,8 +4221,11 @@
       <c r="M64" s="7">
         <v>15.968999999999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R64">
+        <v>610.524267299999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>110</v>
       </c>
@@ -4049,8 +4265,11 @@
       <c r="M65" s="7">
         <v>15.958</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R65">
+        <v>618.65306220000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>111</v>
       </c>
@@ -4090,8 +4309,11 @@
       <c r="M66" s="7">
         <v>16.001000000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R66">
+        <v>628.22197310000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>112</v>
       </c>
@@ -4131,8 +4353,11 @@
       <c r="M67" s="7">
         <v>16.061</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R67">
+        <v>636.15511530000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>113</v>
       </c>
@@ -4172,8 +4397,11 @@
       <c r="M68" s="7">
         <v>16.111999999999998</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R68">
+        <v>643.68776660000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>114</v>
       </c>
@@ -4213,8 +4441,11 @@
       <c r="M69" s="7">
         <v>16.190000000000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R69">
+        <v>655.86224140000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>115</v>
       </c>
@@ -4254,8 +4485,11 @@
       <c r="M70" s="7">
         <v>16.257000000000001</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R70">
+        <v>664.90658819999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>116</v>
       </c>
@@ -4295,8 +4529,11 @@
       <c r="M71" s="7">
         <v>16.294</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R71">
+        <v>673.74080519999995</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>117</v>
       </c>
@@ -4336,8 +4573,11 @@
       <c r="M72" s="7">
         <v>16.352</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R72">
+        <v>683.81164139999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>118</v>
       </c>
@@ -4377,8 +4617,11 @@
       <c r="M73" s="7">
         <v>16.408999999999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R73">
+        <v>694.44804060000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>119</v>
       </c>
@@ -4418,8 +4661,11 @@
       <c r="M74" s="7">
         <v>16.454999999999998</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R74">
+        <v>705.71039859999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>120</v>
       </c>
@@ -4459,8 +4705,11 @@
       <c r="M75" s="7">
         <v>16.565999999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R75">
+        <v>716.53337810000005</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>121</v>
       </c>
@@ -4500,8 +4749,11 @@
       <c r="M76" s="7">
         <v>16.59</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R76">
+        <v>727.13853629999903</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>122</v>
       </c>
@@ -4541,8 +4793,11 @@
       <c r="M77" s="7">
         <v>16.683</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R77">
+        <v>740.1276507</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>123</v>
       </c>
@@ -4582,8 +4837,11 @@
       <c r="M78" s="7">
         <v>16.812999999999999</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R78">
+        <v>752.90432039999996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>124</v>
       </c>
@@ -4623,8 +4881,11 @@
       <c r="M79" s="7">
         <v>16.934000000000001</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R79">
+        <v>767.31876799999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>125</v>
       </c>
@@ -4664,8 +4925,11 @@
       <c r="M80" s="7">
         <v>17.085999999999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R80">
+        <v>783.08203000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>126</v>
       </c>
@@ -4705,8 +4969,11 @@
       <c r="M81" s="7">
         <v>17.192</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R81">
+        <v>798.24810319999995</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>127</v>
       </c>
@@ -4746,8 +5013,14 @@
       <c r="M82" s="7">
         <v>17.222000000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q82">
+        <v>88.149566666666601</v>
+      </c>
+      <c r="R82">
+        <v>810.46956990000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>128</v>
       </c>
@@ -4787,8 +5060,14 @@
       <c r="M83" s="7">
         <v>17.338999999999999</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q83">
+        <v>86.608599999999996</v>
+      </c>
+      <c r="R83">
+        <v>823.78636189999997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>129</v>
       </c>
@@ -4828,8 +5107,14 @@
       <c r="M84" s="7">
         <v>17.504999999999999</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q84">
+        <v>86.043133333333301</v>
+      </c>
+      <c r="R84">
+        <v>841.14886569999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>130</v>
       </c>
@@ -4869,8 +5154,14 @@
       <c r="M85" s="7">
         <v>17.64</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q85">
+        <v>87.186599999999999</v>
+      </c>
+      <c r="R85">
+        <v>860.33641979999902</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>131</v>
       </c>
@@ -4910,8 +5201,14 @@
       <c r="M86" s="7">
         <v>17.852</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q86">
+        <v>87.338999999999999</v>
+      </c>
+      <c r="R86">
+        <v>879.90035479999995</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>132</v>
       </c>
@@ -4951,8 +5248,14 @@
       <c r="M87" s="7">
         <v>18.032</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q87">
+        <v>87.477400000000003</v>
+      </c>
+      <c r="R87">
+        <v>899.09676979999995</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>133</v>
       </c>
@@ -4992,8 +5295,14 @@
       <c r="M88" s="7">
         <v>18.224</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q88">
+        <v>87.134833333333304</v>
+      </c>
+      <c r="R88">
+        <v>918.06164620000004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>134</v>
       </c>
@@ -5033,8 +5342,14 @@
       <c r="M89" s="7">
         <v>18.404</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q89">
+        <v>87.442866666666603</v>
+      </c>
+      <c r="R89">
+        <v>941.34386359999996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>135</v>
       </c>
@@ -5074,8 +5389,14 @@
       <c r="M90" s="7">
         <v>18.61</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q90">
+        <v>88.159333333333294</v>
+      </c>
+      <c r="R90">
+        <v>961.17875230000004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>136</v>
       </c>
@@ -5115,8 +5436,14 @@
       <c r="M91" s="7">
         <v>18.858000000000001</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q91">
+        <v>87.602500000000006</v>
+      </c>
+      <c r="R91">
+        <v>983.3084523</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>137</v>
       </c>
@@ -5156,8 +5483,14 @@
       <c r="M92" s="7">
         <v>19.071999999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q92">
+        <v>87.720466666666596</v>
+      </c>
+      <c r="R92">
+        <v>1006.55299</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>138</v>
       </c>
@@ -5197,8 +5530,14 @@
       <c r="M93" s="7">
         <v>19.308</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q93">
+        <v>86.263033333333297</v>
+      </c>
+      <c r="R93">
+        <v>1028.7076999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>139</v>
       </c>
@@ -5244,8 +5583,14 @@
       <c r="O94" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q94">
+        <v>83.343566666666604</v>
+      </c>
+      <c r="R94">
+        <v>1052.2456279999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>140</v>
       </c>
@@ -5291,8 +5636,14 @@
       <c r="O95" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q95">
+        <v>82.116699999999994</v>
+      </c>
+      <c r="R95">
+        <v>1075.632435</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>141</v>
       </c>
@@ -5338,8 +5689,14 @@
       <c r="O96" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q96">
+        <v>81.070999999999998</v>
+      </c>
+      <c r="R96">
+        <v>1092.998726</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>142</v>
       </c>
@@ -5385,8 +5742,14 @@
       <c r="O97" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q97">
+        <v>78.593800000000002</v>
+      </c>
+      <c r="R97">
+        <v>1115.9525349999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>143</v>
       </c>
@@ -5432,8 +5795,14 @@
       <c r="O98" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q98">
+        <v>79.443899999999999</v>
+      </c>
+      <c r="R98">
+        <v>1141.9851570000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>144</v>
       </c>
@@ -5479,8 +5848,14 @@
       <c r="O99" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q99">
+        <v>79.557233333333301</v>
+      </c>
+      <c r="R99">
+        <v>1166.644875</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>145</v>
       </c>
@@ -5526,8 +5901,14 @@
       <c r="O100" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q100">
+        <v>79.204099999999997</v>
+      </c>
+      <c r="R100">
+        <v>1188.677003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>146</v>
       </c>
@@ -5573,8 +5954,14 @@
       <c r="O101" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q101">
+        <v>80.436233333333305</v>
+      </c>
+      <c r="R101">
+        <v>1208.845086</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>147</v>
       </c>
@@ -5620,8 +6007,14 @@
       <c r="O102" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q102">
+        <v>83.242066666666602</v>
+      </c>
+      <c r="R102">
+        <v>1237.3963349999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>148</v>
       </c>
@@ -5667,8 +6060,14 @@
       <c r="O103" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q103">
+        <v>84.201300000000003</v>
+      </c>
+      <c r="R103">
+        <v>1254.8895680000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>149</v>
       </c>
@@ -5714,8 +6113,14 @@
       <c r="O104" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q104">
+        <v>84.599066666666602</v>
+      </c>
+      <c r="R104">
+        <v>1276.5064890000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>150</v>
       </c>
@@ -5761,8 +6166,14 @@
       <c r="O105" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q105">
+        <v>86.769966666666605</v>
+      </c>
+      <c r="R105">
+        <v>1302.520021</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>151</v>
       </c>
@@ -5808,8 +6219,14 @@
       <c r="O106" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q106">
+        <v>88.396466666666598</v>
+      </c>
+      <c r="R106">
+        <v>1327.7102190000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>152</v>
       </c>
@@ -5855,8 +6272,14 @@
       <c r="O107" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q107">
+        <v>88.253966666666599</v>
+      </c>
+      <c r="R107">
+        <v>1359.1456390000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>153</v>
       </c>
@@ -5902,8 +6325,14 @@
       <c r="O108" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q108">
+        <v>88.084533333333297</v>
+      </c>
+      <c r="R108">
+        <v>1397.1871329999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>154</v>
       </c>
@@ -5949,8 +6378,14 @@
       <c r="O109" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q109">
+        <v>88.556600000000003</v>
+      </c>
+      <c r="R109">
+        <v>1437.3338099999901</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>155</v>
       </c>
@@ -5996,8 +6431,14 @@
       <c r="O110" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q110">
+        <v>86.943600000000004</v>
+      </c>
+      <c r="R110">
+        <v>1477.099463</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>156</v>
       </c>
@@ -6043,8 +6484,14 @@
       <c r="O111" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q111">
+        <v>86.292933333333295</v>
+      </c>
+      <c r="R111">
+        <v>1525.0964240000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>157</v>
       </c>
@@ -6090,8 +6537,14 @@
       <c r="O112" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q112">
+        <v>85.384366666666594</v>
+      </c>
+      <c r="R112">
+        <v>1582.9788920000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>158</v>
       </c>
@@ -6137,8 +6590,14 @@
       <c r="O113" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q113">
+        <v>81.506833333333304</v>
+      </c>
+      <c r="R113">
+        <v>1643.0582609999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>159</v>
       </c>
@@ -6184,8 +6643,14 @@
       <c r="O114" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q114">
+        <v>75.661666666666605</v>
+      </c>
+      <c r="R114">
+        <v>1693.87701499999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>160</v>
       </c>
@@ -6231,8 +6696,14 @@
       <c r="O115" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q115">
+        <v>74.322733333333304</v>
+      </c>
+      <c r="R115">
+        <v>1732.6305789999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>161</v>
       </c>
@@ -6278,8 +6749,14 @@
       <c r="O116" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q116">
+        <v>75.790599999999998</v>
+      </c>
+      <c r="R116">
+        <v>1776.8473059999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>162</v>
       </c>
@@ -6325,8 +6802,14 @@
       <c r="O117" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q117">
+        <v>77.038700000000006</v>
+      </c>
+      <c r="R117">
+        <v>1820.4053819999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>163</v>
       </c>
@@ -6372,8 +6855,14 @@
       <c r="O118" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q118">
+        <v>78.904166666666598</v>
+      </c>
+      <c r="R118">
+        <v>1853.490335</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>164</v>
       </c>
@@ -6419,8 +6908,14 @@
       <c r="O119" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q119">
+        <v>79.404200000000003</v>
+      </c>
+      <c r="R119">
+        <v>1886.1097949999901</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>165</v>
       </c>
@@ -6466,8 +6961,14 @@
       <c r="O120" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q120">
+        <v>79.932466666666599</v>
+      </c>
+      <c r="R120">
+        <v>1925.04763</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>166</v>
       </c>
@@ -6513,8 +7014,14 @@
       <c r="O121" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q121">
+        <v>80.807699999999997</v>
+      </c>
+      <c r="R121">
+        <v>1974.4854439999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>167</v>
       </c>
@@ -6560,8 +7067,14 @@
       <c r="O122" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q122">
+        <v>81.827433333333303</v>
+      </c>
+      <c r="R122">
+        <v>2021.8984329999901</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>168</v>
       </c>
@@ -6607,8 +7120,14 @@
       <c r="O123" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q123">
+        <v>83.755933333333303</v>
+      </c>
+      <c r="R123">
+        <v>2067.0156699999998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>169</v>
       </c>
@@ -6654,8 +7173,14 @@
       <c r="O124" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q124">
+        <v>84.007499999999993</v>
+      </c>
+      <c r="R124">
+        <v>2109.323249</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>170</v>
       </c>
@@ -6701,8 +7226,14 @@
       <c r="O125" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q125">
+        <v>83.839200000000005</v>
+      </c>
+      <c r="R125">
+        <v>2172.916725</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>171</v>
       </c>
@@ -6748,8 +7279,14 @@
       <c r="O126" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q126">
+        <v>82.886466666666607</v>
+      </c>
+      <c r="R126">
+        <v>2223.2557160000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>172</v>
       </c>
@@ -6795,8 +7332,14 @@
       <c r="O127" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q127">
+        <v>85.540300000000002</v>
+      </c>
+      <c r="R127">
+        <v>2285.131433</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>173</v>
       </c>
@@ -6842,8 +7385,14 @@
       <c r="O128" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q128">
+        <v>85.5809</v>
+      </c>
+      <c r="R128">
+        <v>2344.2615839999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>174</v>
       </c>
@@ -6889,8 +7438,14 @@
       <c r="O129" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q129">
+        <v>86.373266666666595</v>
+      </c>
+      <c r="R129">
+        <v>2413.2887460000002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>175</v>
       </c>
@@ -6936,8 +7491,14 @@
       <c r="O130" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q130">
+        <v>86.090233333333302</v>
+      </c>
+      <c r="R130">
+        <v>2479.5954430000002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>176</v>
       </c>
@@ -6983,8 +7544,14 @@
       <c r="O131" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q131">
+        <v>85.233900000000006</v>
+      </c>
+      <c r="R131">
+        <v>2562.373681</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>177</v>
       </c>
@@ -7030,8 +7597,14 @@
       <c r="O132" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q132">
+        <v>84.366299999999995</v>
+      </c>
+      <c r="R132">
+        <v>2639.8152439999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>178</v>
       </c>
@@ -7077,8 +7650,14 @@
       <c r="O133" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q133">
+        <v>84.166499999999999</v>
+      </c>
+      <c r="R133">
+        <v>2708.8784639999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>179</v>
       </c>
@@ -7124,8 +7703,14 @@
       <c r="O134" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q134">
+        <v>84.029066666666594</v>
+      </c>
+      <c r="R134">
+        <v>2784.0217789999901</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>180</v>
       </c>
@@ -7171,8 +7756,14 @@
       <c r="O135" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q135">
+        <v>80.014333333333298</v>
+      </c>
+      <c r="R135">
+        <v>2866.5326500000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>181</v>
       </c>
@@ -7218,8 +7809,14 @@
       <c r="O136" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q136">
+        <v>78.250333333333302</v>
+      </c>
+      <c r="R136">
+        <v>2944.5695179999998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>182</v>
       </c>
@@ -7265,8 +7862,14 @@
       <c r="O137" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q137">
+        <v>80.760800000000003</v>
+      </c>
+      <c r="R137">
+        <v>3036.4104010000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>183</v>
       </c>
@@ -7312,8 +7915,14 @@
       <c r="O138" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q138">
+        <v>80.386133333333305</v>
+      </c>
+      <c r="R138">
+        <v>3126.3115320000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>184</v>
       </c>
@@ -7359,8 +7968,14 @@
       <c r="O139" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q139">
+        <v>80.031066666666604</v>
+      </c>
+      <c r="R139">
+        <v>3208.3339620000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>185</v>
       </c>
@@ -7406,8 +8021,14 @@
       <c r="O140" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q140">
+        <v>80.177133333333302</v>
+      </c>
+      <c r="R140">
+        <v>3290.6037350000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>186</v>
       </c>
@@ -7453,8 +8074,14 @@
       <c r="O141" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q141">
+        <v>77.803533333333306</v>
+      </c>
+      <c r="R141">
+        <v>3371.1634009999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>187</v>
       </c>
@@ -7500,8 +8127,14 @@
       <c r="O142" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q142">
+        <v>75.718233333333302</v>
+      </c>
+      <c r="R142">
+        <v>3442.7524869999902</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>188</v>
       </c>
@@ -7547,8 +8180,14 @@
       <c r="O143" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q143">
+        <v>74.382566666666605</v>
+      </c>
+      <c r="R143">
+        <v>3513.7869289999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>189</v>
       </c>
@@ -7594,8 +8233,14 @@
       <c r="O144" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q144">
+        <v>73.026599999999902</v>
+      </c>
+      <c r="R144">
+        <v>3590.9186100000002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>190</v>
       </c>
@@ -7641,8 +8286,14 @@
       <c r="O145" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q145">
+        <v>71.452033333333304</v>
+      </c>
+      <c r="R145">
+        <v>3656.536525</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>191</v>
       </c>
@@ -7688,8 +8339,14 @@
       <c r="O146" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q146">
+        <v>72.141233333333304</v>
+      </c>
+      <c r="R146">
+        <v>3712.5106619999901</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>192</v>
       </c>
@@ -7735,8 +8392,14 @@
       <c r="O147" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q147">
+        <v>73.683266666666597</v>
+      </c>
+      <c r="R147">
+        <v>3769.3899219999998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>193</v>
       </c>
@@ -7782,8 +8445,14 @@
       <c r="O148" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q148">
+        <v>76.114466666666601</v>
+      </c>
+      <c r="R148">
+        <v>3840.055061</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>194</v>
       </c>
@@ -7829,8 +8498,14 @@
       <c r="O149" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q149">
+        <v>77.942733333333294</v>
+      </c>
+      <c r="R149">
+        <v>3901.1061799999902</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>195</v>
       </c>
@@ -7876,8 +8551,14 @@
       <c r="O150" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q150">
+        <v>79.977899999999906</v>
+      </c>
+      <c r="R150">
+        <v>3974.2638459999998</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>196</v>
       </c>
@@ -7923,8 +8604,14 @@
       <c r="O151" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q151">
+        <v>80.834500000000006</v>
+      </c>
+      <c r="R151">
+        <v>4043.3373579999902</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>197</v>
       </c>
@@ -7970,8 +8657,14 @@
       <c r="O152" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q152">
+        <v>80.886633333333293</v>
+      </c>
+      <c r="R152">
+        <v>4115.627759</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>198</v>
       </c>
@@ -8017,8 +8710,14 @@
       <c r="O153" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q153">
+        <v>80.372100000000003</v>
+      </c>
+      <c r="R153">
+        <v>4183.5817029999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>199</v>
       </c>
@@ -8064,8 +8763,14 @@
       <c r="O154" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q154">
+        <v>80.046133333333302</v>
+      </c>
+      <c r="R154">
+        <v>4262.6752850000003</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>200</v>
       </c>
@@ -8111,8 +8816,14 @@
       <c r="O155" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q155">
+        <v>79.480133333333299</v>
+      </c>
+      <c r="R155">
+        <v>4328.1549059999998</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>201</v>
       </c>
@@ -8158,8 +8869,14 @@
       <c r="O156" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q156">
+        <v>78.805799999999905</v>
+      </c>
+      <c r="R156">
+        <v>4392.479155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>202</v>
       </c>
@@ -8205,8 +8922,14 @@
       <c r="O157" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q157">
+        <v>78.788499999999999</v>
+      </c>
+      <c r="R157">
+        <v>4455.1133170000003</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>203</v>
       </c>
@@ -8252,8 +8975,14 @@
       <c r="O158" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q158">
+        <v>78.910600000000002</v>
+      </c>
+      <c r="R158">
+        <v>4515.1490439999998</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>204</v>
       </c>
@@ -8299,8 +9028,14 @@
       <c r="O159" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q159">
+        <v>78.174700000000001</v>
+      </c>
+      <c r="R159">
+        <v>4569.816417</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>205</v>
       </c>
@@ -8346,8 +9081,14 @@
       <c r="O160" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q160">
+        <v>78.247799999999998</v>
+      </c>
+      <c r="R160">
+        <v>4626.1940379999996</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>206</v>
       </c>
@@ -8393,8 +9134,14 @@
       <c r="O161" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q161">
+        <v>78.840266666666594</v>
+      </c>
+      <c r="R161">
+        <v>4689.2588850000002</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>207</v>
       </c>
@@ -8440,8 +9187,14 @@
       <c r="O162" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q162">
+        <v>79.520399999999995</v>
+      </c>
+      <c r="R162">
+        <v>4757.3731019999996</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>208</v>
       </c>
@@ -8487,8 +9240,14 @@
       <c r="O163" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q163">
+        <v>80.462033333333295</v>
+      </c>
+      <c r="R163">
+        <v>4828.5929640000004</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>209</v>
       </c>
@@ -8534,8 +9293,14 @@
       <c r="O164" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q164">
+        <v>81.493933333333302</v>
+      </c>
+      <c r="R164">
+        <v>4903.6704259999997</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>210</v>
       </c>
@@ -8581,8 +9346,14 @@
       <c r="O165" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q165">
+        <v>83.027499999999904</v>
+      </c>
+      <c r="R165">
+        <v>4981.7766700000002</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>211</v>
       </c>
@@ -8628,8 +9399,14 @@
       <c r="O166" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q166">
+        <v>83.543733333333293</v>
+      </c>
+      <c r="R166">
+        <v>5060.2075560000003</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>212</v>
       </c>
@@ -8675,8 +9452,14 @@
       <c r="O167" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q167">
+        <v>84.139766666666603</v>
+      </c>
+      <c r="R167">
+        <v>5149.3756999999996</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>213</v>
       </c>
@@ -8722,8 +9505,14 @@
       <c r="O168" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q168">
+        <v>84.354533333333293</v>
+      </c>
+      <c r="R168">
+        <v>5251.528894</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>214</v>
       </c>
@@ -8769,8 +9558,14 @@
       <c r="O169" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q169">
+        <v>84.7851</v>
+      </c>
+      <c r="R169">
+        <v>5338.2009420000004</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>215</v>
       </c>
@@ -8816,8 +9611,14 @@
       <c r="O170" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q170">
+        <v>84.892166666666597</v>
+      </c>
+      <c r="R170">
+        <v>5435.697811</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>216</v>
       </c>
@@ -8863,8 +9664,14 @@
       <c r="O171" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q171">
+        <v>84.148200000000003</v>
+      </c>
+      <c r="R171">
+        <v>5535.86913</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>217</v>
       </c>
@@ -8910,8 +9717,14 @@
       <c r="O172" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q172">
+        <v>83.098599999999905</v>
+      </c>
+      <c r="R172">
+        <v>5618.9537499999997</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>218</v>
       </c>
@@ -8957,8 +9770,14 @@
       <c r="O173" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q173">
+        <v>82.835933333333301</v>
+      </c>
+      <c r="R173">
+        <v>5701.639795</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>219</v>
       </c>
@@ -9004,8 +9823,14 @@
       <c r="O174" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q174">
+        <v>82.863066666666597</v>
+      </c>
+      <c r="R174">
+        <v>5805.9271710000003</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>220</v>
       </c>
@@ -9051,8 +9876,14 @@
       <c r="O175" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q175">
+        <v>82.892566666666596</v>
+      </c>
+      <c r="R175">
+        <v>5913.4797399999998</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>221</v>
       </c>
@@ -9098,8 +9929,14 @@
       <c r="O176" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q176">
+        <v>82.760666666666594</v>
+      </c>
+      <c r="R176">
+        <v>6006.0104849999998</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>222</v>
       </c>
@@ -9145,8 +9982,14 @@
       <c r="O177" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q177">
+        <v>81.136499999999998</v>
+      </c>
+      <c r="R177">
+        <v>6091.7236670000002</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>223</v>
       </c>
@@ -9192,8 +10035,14 @@
       <c r="O178" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q178">
+        <v>79.334099999999907</v>
+      </c>
+      <c r="R178">
+        <v>6191.9116809999996</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>224</v>
       </c>
@@ -9239,8 +10088,14 @@
       <c r="O179" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q179">
+        <v>79.5510666666666</v>
+      </c>
+      <c r="R179">
+        <v>6277.1077580000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>225</v>
       </c>
@@ -9286,8 +10141,14 @@
       <c r="O180" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q180">
+        <v>80.445800000000006</v>
+      </c>
+      <c r="R180">
+        <v>6365.4781419999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>226</v>
       </c>
@@ -9333,8 +10194,14 @@
       <c r="O181" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q181">
+        <v>80.3142</v>
+      </c>
+      <c r="R181">
+        <v>6442.9497009999995</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>227</v>
       </c>
@@ -9380,8 +10247,14 @@
       <c r="O182" s="5">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q182">
+        <v>79.769033333333297</v>
+      </c>
+      <c r="R182">
+        <v>6506.7752700000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>228</v>
       </c>
@@ -9427,8 +10300,14 @@
       <c r="O183" s="5">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q183">
+        <v>80.688199999999995</v>
+      </c>
+      <c r="R183">
+        <v>6586.491822</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>229</v>
       </c>
@@ -9474,8 +10353,14 @@
       <c r="O184" s="5">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q184">
+        <v>80.785299999999907</v>
+      </c>
+      <c r="R184">
+        <v>6660.1796020000002</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>230</v>
       </c>
@@ -9521,8 +10406,14 @@
       <c r="O185" s="5">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q185">
+        <v>81.110766666666606</v>
+      </c>
+      <c r="R185">
+        <v>6748.6188319999901</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>231</v>
       </c>
@@ -9568,8 +10459,14 @@
       <c r="O186" s="5">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q186">
+        <v>81.4367666666666</v>
+      </c>
+      <c r="R186">
+        <v>6829.8161959999998</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>232</v>
       </c>
@@ -9615,8 +10512,14 @@
       <c r="O187" s="5">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q187">
+        <v>81.248800000000003</v>
+      </c>
+      <c r="R187">
+        <v>6915.2896099999998</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>233</v>
       </c>
@@ -9662,8 +10565,14 @@
       <c r="O188" s="5">
         <v>3.45</v>
       </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q188">
+        <v>81.216999999999999</v>
+      </c>
+      <c r="R188">
+        <v>7002.2222299999903</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>234</v>
       </c>
@@ -9709,8 +10618,14 @@
       <c r="O189" s="5">
         <v>3.45</v>
       </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q189">
+        <v>82.050633333333295</v>
+      </c>
+      <c r="R189">
+        <v>7087.1289349999997</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>235</v>
       </c>
@@ -9756,8 +10671,14 @@
       <c r="O190" s="5">
         <v>3.45</v>
       </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q190">
+        <v>82.501666666666594</v>
+      </c>
+      <c r="R190">
+        <v>7168.7985559999997</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>236</v>
       </c>
@@ -9803,8 +10724,14 @@
       <c r="O191" s="5">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q191">
+        <v>83.334800000000001</v>
+      </c>
+      <c r="R191">
+        <v>7251.8065569999899</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>237</v>
       </c>
@@ -9850,8 +10777,14 @@
       <c r="O192" s="5">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q192">
+        <v>83.633133333333305</v>
+      </c>
+      <c r="R192">
+        <v>7343.2918540000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>238</v>
       </c>
@@ -9897,8 +10830,14 @@
       <c r="O193" s="5">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q193">
+        <v>84.5082666666666</v>
+      </c>
+      <c r="R193">
+        <v>7434.1555840000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>239</v>
       </c>
@@ -9944,8 +10883,14 @@
       <c r="O194" s="5">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q194">
+        <v>84.540966666666606</v>
+      </c>
+      <c r="R194">
+        <v>7526.2459250000002</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>240</v>
       </c>
@@ -9991,8 +10936,14 @@
       <c r="O195" s="5">
         <v>3.35</v>
       </c>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q195">
+        <v>83.940266666666602</v>
+      </c>
+      <c r="R195">
+        <v>7615.5385819999901</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>241</v>
       </c>
@@ -10038,8 +10989,14 @@
       <c r="O196" s="5">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q196">
+        <v>83.813833333333307</v>
+      </c>
+      <c r="R196">
+        <v>7706.9652889999998</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>242</v>
       </c>
@@ -10085,8 +11042,14 @@
       <c r="O197" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q197">
+        <v>83.462766666666596</v>
+      </c>
+      <c r="R197">
+        <v>7799.8132290000003</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>243</v>
       </c>
@@ -10132,8 +11095,14 @@
       <c r="O198" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q198">
+        <v>82.906766666666599</v>
+      </c>
+      <c r="R198">
+        <v>7894.5567289999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>244</v>
       </c>
@@ -10179,8 +11148,14 @@
       <c r="O199" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q199">
+        <v>83.528066666666604</v>
+      </c>
+      <c r="R199">
+        <v>7988.2158040000004</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>245</v>
       </c>
@@ -10226,8 +11201,14 @@
       <c r="O200" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q200">
+        <v>83.462433333333294</v>
+      </c>
+      <c r="R200">
+        <v>8079.9808890000004</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>246</v>
       </c>
@@ -10273,8 +11254,14 @@
       <c r="O201" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q201">
+        <v>83.484266666666599</v>
+      </c>
+      <c r="R201">
+        <v>8193.5555000000004</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>247</v>
       </c>
@@ -10320,8 +11307,14 @@
       <c r="O202" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q202">
+        <v>83.851533333333293</v>
+      </c>
+      <c r="R202">
+        <v>8317.3596129999896</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>248</v>
       </c>
@@ -10367,8 +11360,14 @@
       <c r="O203" s="5">
         <v>2.85</v>
       </c>
-    </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q203">
+        <v>83.782066666666594</v>
+      </c>
+      <c r="R203">
+        <v>8412.5565750000005</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>249</v>
       </c>
@@ -10414,8 +11413,14 @@
       <c r="O204" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q204">
+        <v>84.288366666666604</v>
+      </c>
+      <c r="R204">
+        <v>8532.1647819999998</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>250</v>
       </c>
@@ -10461,8 +11466,14 @@
       <c r="O205" s="5">
         <v>2.65</v>
       </c>
-    </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q205">
+        <v>84.787700000000001</v>
+      </c>
+      <c r="R205">
+        <v>8646.776124</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>251</v>
       </c>
@@ -10511,8 +11522,14 @@
       <c r="P206">
         <v>-0.5009723302049629</v>
       </c>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q206">
+        <v>84.040399999999906</v>
+      </c>
+      <c r="R206">
+        <v>8748.0520730000007</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>252</v>
       </c>
@@ -10561,8 +11578,14 @@
       <c r="P207">
         <v>-0.48554413384787443</v>
       </c>
-    </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q207">
+        <v>82.973666666666603</v>
+      </c>
+      <c r="R207">
+        <v>8860.6284070000002</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>253</v>
       </c>
@@ -10611,8 +11634,14 @@
       <c r="P208">
         <v>-0.93320557373950808</v>
       </c>
-    </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q208">
+        <v>82.217266666666603</v>
+      </c>
+      <c r="R208">
+        <v>8992.1209699999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>254</v>
       </c>
@@ -10661,8 +11690,14 @@
       <c r="P209">
         <v>-0.69874402459190954</v>
       </c>
-    </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q209">
+        <v>82.189899999999994</v>
+      </c>
+      <c r="R209">
+        <v>9113.5932269999994</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>255</v>
       </c>
@@ -10711,8 +11746,14 @@
       <c r="P210">
         <v>-0.18417034995222953</v>
       </c>
-    </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q210">
+        <v>82.091966666666593</v>
+      </c>
+      <c r="R210">
+        <v>9241.4633269999995</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>256</v>
       </c>
@@ -10761,8 +11802,14 @@
       <c r="P211">
         <v>-0.32242093639594138</v>
       </c>
-    </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q211">
+        <v>81.932866666666598</v>
+      </c>
+      <c r="R211">
+        <v>9376.48514599999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>257</v>
       </c>
@@ -10811,8 +11858,14 @@
       <c r="P212">
         <v>-0.43117924951804637</v>
       </c>
-    </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q212">
+        <v>81.761099999999999</v>
+      </c>
+      <c r="R212">
+        <v>9511.2070379999896</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>258</v>
       </c>
@@ -10861,8 +11914,14 @@
       <c r="P213">
         <v>-3.7706831790249834E-2</v>
       </c>
-    </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q213">
+        <v>82.278099999999995</v>
+      </c>
+      <c r="R213">
+        <v>9667.9043450000008</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>259</v>
       </c>
@@ -10911,8 +11970,14 @@
       <c r="P214">
         <v>-0.32396161976205362</v>
       </c>
-    </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q214">
+        <v>82.184399999999997</v>
+      </c>
+      <c r="R214">
+        <v>9837.7982300000003</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>260</v>
       </c>
@@ -10961,8 +12026,14 @@
       <c r="P215">
         <v>6.5570296025965466E-2</v>
       </c>
-    </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q215">
+        <v>82.333733333333299</v>
+      </c>
+      <c r="R215">
+        <v>10002.464250000001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>261</v>
       </c>
@@ -11011,8 +12082,14 @@
       <c r="P216">
         <v>-0.12535281922165137</v>
       </c>
-    </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q216">
+        <v>81.484033333333301</v>
+      </c>
+      <c r="R216">
+        <v>10160.78751</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>262</v>
       </c>
@@ -11061,8 +12138,14 @@
       <c r="P217">
         <v>-0.88289662089528509</v>
       </c>
-    </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q217">
+        <v>80.501066666666603</v>
+      </c>
+      <c r="R217">
+        <v>10310.7019599999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>263</v>
       </c>
@@ -11111,8 +12194,14 @@
       <c r="P218">
         <v>-1.0030462019635109</v>
       </c>
-    </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q218">
+        <v>78.780266666666606</v>
+      </c>
+      <c r="R218">
+        <v>10469.673650000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>264</v>
       </c>
@@ -11161,8 +12250,14 @@
       <c r="P219">
         <v>-1.0622799808660097</v>
       </c>
-    </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q219">
+        <v>77.104699999999994</v>
+      </c>
+      <c r="R219">
+        <v>10618.901400000001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>265</v>
       </c>
@@ -11211,8 +12306,14 @@
       <c r="P220">
         <v>-0.69069813085955856</v>
       </c>
-    </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q220">
+        <v>75.399366666666594</v>
+      </c>
+      <c r="R220">
+        <v>10742.049279999999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>266</v>
       </c>
@@ -11261,8 +12362,14 @@
       <c r="P221">
         <v>-1.1180952021623358</v>
       </c>
-    </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q221">
+        <v>74.076700000000002</v>
+      </c>
+      <c r="R221">
+        <v>10852.96509</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>267</v>
       </c>
@@ -11311,8 +12418,14 @@
       <c r="P222">
         <v>-0.45025283920800302</v>
       </c>
-    </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q222">
+        <v>74.195033333333299</v>
+      </c>
+      <c r="R222">
+        <v>10960.516659999999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>268</v>
       </c>
@@ -11361,8 +12474,14 @@
       <c r="P223">
         <v>-0.32296663826804717</v>
       </c>
-    </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q223">
+        <v>75.101200000000006</v>
+      </c>
+      <c r="R223">
+        <v>11069.773999999999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>269</v>
       </c>
@@ -11411,8 +12530,14 @@
       <c r="P224">
         <v>-0.90077558508469124</v>
       </c>
-    </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q224">
+        <v>75.484666666666598</v>
+      </c>
+      <c r="R224">
+        <v>11192.443229999901</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>270</v>
       </c>
@@ -11461,8 +12586,14 @@
       <c r="P225">
         <v>-0.80034913799258711</v>
       </c>
-    </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q225">
+        <v>75.520899999999997</v>
+      </c>
+      <c r="R225">
+        <v>11326.62543</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>271</v>
       </c>
@@ -11511,8 +12642,14 @@
       <c r="P226">
         <v>-0.32735529063637031</v>
       </c>
-    </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q226">
+        <v>76.103633333333306</v>
+      </c>
+      <c r="R226">
+        <v>11451.72941</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>272</v>
       </c>
@@ -11561,8 +12698,14 @@
       <c r="P227">
         <v>-0.26410022901743441</v>
       </c>
-    </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q227">
+        <v>75.647933333333299</v>
+      </c>
+      <c r="R227">
+        <v>11562.500539999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>273</v>
       </c>
@@ -11611,8 +12754,14 @@
       <c r="P228">
         <v>-4.0822732857660957E-2</v>
       </c>
-    </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q228">
+        <v>76.201033333333299</v>
+      </c>
+      <c r="R228">
+        <v>11699.594999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>274</v>
       </c>
@@ -11661,8 +12810,14 @@
       <c r="P229">
         <v>-0.21060362724023818</v>
       </c>
-    </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q229">
+        <v>76.950266666666593</v>
+      </c>
+      <c r="R229">
+        <v>11843.26613</v>
+      </c>
+    </row>
+    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>275</v>
       </c>
@@ -11711,8 +12866,14 @@
       <c r="P230">
         <v>-0.13521746356698622</v>
       </c>
-    </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q230">
+        <v>77.505533333333304</v>
+      </c>
+      <c r="R230">
+        <v>12002.115690000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>276</v>
       </c>
@@ -11761,8 +12922,14 @@
       <c r="P231">
         <v>0.49365835653080292</v>
       </c>
-    </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q231">
+        <v>77.969966666666593</v>
+      </c>
+      <c r="R231">
+        <v>12174.96017</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>277</v>
       </c>
@@ -11811,8 +12978,14 @@
       <c r="P232">
         <v>-4.5903340695069364E-2</v>
       </c>
-    </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q232">
+        <v>78.429000000000002</v>
+      </c>
+      <c r="R232">
+        <v>12330.283740000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>278</v>
       </c>
@@ -11861,8 +13034,14 @@
       <c r="P233">
         <v>-0.14569466311929133</v>
       </c>
-    </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q233">
+        <v>79.470333333333301</v>
+      </c>
+      <c r="R233">
+        <v>12505.216259999999</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>279</v>
       </c>
@@ -11911,8 +13090,14 @@
       <c r="P234">
         <v>-0.2033247450748544</v>
       </c>
-    </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q234">
+        <v>80.423866666666598</v>
+      </c>
+      <c r="R234">
+        <v>12683.22687</v>
+      </c>
+    </row>
+    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>280</v>
       </c>
@@ -11961,8 +13146,14 @@
       <c r="P235">
         <v>-1.1200245181533282</v>
       </c>
-    </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q235">
+        <v>80.602733333333305</v>
+      </c>
+      <c r="R235">
+        <v>12850.620199999999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>281</v>
       </c>
@@ -12011,8 +13202,14 @@
       <c r="P236">
         <v>-0.542446421338866</v>
       </c>
-    </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q236">
+        <v>79.909766666666599</v>
+      </c>
+      <c r="R236">
+        <v>13042.589889999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>282</v>
       </c>
@@ -12061,8 +13258,14 @@
       <c r="P237">
         <v>-0.46982977869905457</v>
       </c>
-    </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q237">
+        <v>80.265866666666597</v>
+      </c>
+      <c r="R237">
+        <v>13223.02454</v>
+      </c>
+    </row>
+    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>283</v>
       </c>
@@ -12111,8 +13314,14 @@
       <c r="P238">
         <v>-0.47507039708765847</v>
       </c>
-    </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q238">
+        <v>80.659933333333299</v>
+      </c>
+      <c r="R238">
+        <v>13387.825409999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>284</v>
       </c>
@@ -12161,8 +13370,14 @@
       <c r="P239">
         <v>5.8838252819392298E-2</v>
       </c>
-    </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q239">
+        <v>80.727833333333294</v>
+      </c>
+      <c r="R239">
+        <v>13574.2659199999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>285</v>
       </c>
@@ -12211,8 +13426,14 @@
       <c r="P240">
         <v>-0.23386320907584301</v>
       </c>
-    </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q240">
+        <v>80.5891666666666</v>
+      </c>
+      <c r="R240">
+        <v>13735.82524</v>
+      </c>
+    </row>
+    <row r="241" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>286</v>
       </c>
@@ -12261,8 +13482,14 @@
       <c r="P241">
         <v>-0.39111238713314467</v>
       </c>
-    </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q241">
+        <v>80.248400000000004</v>
+      </c>
+      <c r="R241">
+        <v>13848.42834</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>287</v>
       </c>
@@ -12311,8 +13538,14 @@
       <c r="P242">
         <v>-0.72116497700935878</v>
       </c>
-    </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q242">
+        <v>80.520066666666594</v>
+      </c>
+      <c r="R242">
+        <v>14045.73165</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>288</v>
       </c>
@@ -12361,8 +13594,14 @@
       <c r="P243">
         <v>-0.47714207240253331</v>
       </c>
-    </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q243">
+        <v>81.000633333333298</v>
+      </c>
+      <c r="R243">
+        <v>14212.10318</v>
+      </c>
+    </row>
+    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>289</v>
       </c>
@@ -12411,8 +13650,14 @@
       <c r="P244">
         <v>-0.18686216050076007</v>
       </c>
-    </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q244">
+        <v>80.824133333333293</v>
+      </c>
+      <c r="R244">
+        <v>14361.15186</v>
+      </c>
+    </row>
+    <row r="245" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>290</v>
       </c>
@@ -12461,8 +13706,14 @@
       <c r="P245">
         <v>-0.41940696231499008</v>
       </c>
-    </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q245">
+        <v>80.977566666666604</v>
+      </c>
+      <c r="R245">
+        <v>14491.58066</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>291</v>
       </c>
@@ -12511,8 +13762,14 @@
       <c r="P246">
         <v>7.8362146551908166E-2</v>
       </c>
-    </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q246">
+        <v>80.784400000000005</v>
+      </c>
+      <c r="R246">
+        <v>14618.168019999999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>292</v>
       </c>
@@ -12561,8 +13818,14 @@
       <c r="P247">
         <v>7.7560703166445158E-2</v>
       </c>
-    </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q247">
+        <v>79.650866666666602</v>
+      </c>
+      <c r="R247">
+        <v>14761.03608</v>
+      </c>
+    </row>
+    <row r="248" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>293</v>
       </c>
@@ -12611,8 +13874,14 @@
       <c r="P248">
         <v>0.19842204744683939</v>
       </c>
-    </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q248">
+        <v>76.993066666666607</v>
+      </c>
+      <c r="R248">
+        <v>14942.714379999999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>294</v>
       </c>
@@ -12661,8 +13930,14 @@
       <c r="P249">
         <v>-1.1094450967788281</v>
       </c>
-    </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q249">
+        <v>73.418633333333304</v>
+      </c>
+      <c r="R249">
+        <v>15046.2381</v>
+      </c>
+    </row>
+    <row r="250" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>295</v>
       </c>
@@ -12711,8 +13986,14 @@
       <c r="P250">
         <v>-0.32549302438474148</v>
       </c>
-    </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q250">
+        <v>69.017299999999906</v>
+      </c>
+      <c r="R250">
+        <v>15096.6798</v>
+      </c>
+    </row>
+    <row r="251" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>296</v>
       </c>
@@ -12761,8 +14042,14 @@
       <c r="P251">
         <v>0.11755606975049973</v>
       </c>
-    </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q251">
+        <v>66.919200000000004</v>
+      </c>
+      <c r="R251">
+        <v>15130.24626</v>
+      </c>
+    </row>
+    <row r="252" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>297</v>
       </c>
@@ -12811,8 +14098,14 @@
       <c r="P252">
         <v>-0.80002693697286231</v>
       </c>
-    </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q252">
+        <v>68.041466666666594</v>
+      </c>
+      <c r="R252">
+        <v>15203.519689999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>298</v>
       </c>
@@ -12861,8 +14154,14 @@
       <c r="P253">
         <v>-0.60298120501984775</v>
       </c>
-    </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q253">
+        <v>69.445599999999999</v>
+      </c>
+      <c r="R253">
+        <v>15305.270699999999</v>
+      </c>
+    </row>
+    <row r="254" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>299</v>
       </c>
@@ -12911,8 +14210,14 @@
       <c r="P254">
         <v>-2.0769352359488458E-3</v>
       </c>
-    </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q254">
+        <v>71.236933333333297</v>
+      </c>
+      <c r="R254">
+        <v>15403.516519999999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>300</v>
       </c>
@@ -12961,8 +14266,14 @@
       <c r="P255">
         <v>0.22035896689346435</v>
       </c>
-    </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q255">
+        <v>73.032300000000006</v>
+      </c>
+      <c r="R255">
+        <v>15533.996590000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>301</v>
       </c>
@@ -13011,8 +14322,14 @@
       <c r="P256">
         <v>0.25341410781533635</v>
       </c>
-    </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q256">
+        <v>74.365600000000001</v>
+      </c>
+      <c r="R256">
+        <v>15638.957419999901</v>
+      </c>
+    </row>
+    <row r="257" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>302</v>
       </c>
@@ -13061,8 +14378,14 @@
       <c r="P257">
         <v>0.59015364969986273</v>
       </c>
-    </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q257">
+        <v>74.929966666666601</v>
+      </c>
+      <c r="R257">
+        <v>15789.3742699999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>303</v>
       </c>
@@ -13111,8 +14434,14 @@
       <c r="P258">
         <v>0.61997030537182007</v>
       </c>
-    </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q258">
+        <v>75.447199999999995</v>
+      </c>
+      <c r="R258">
+        <v>15931.952219999999</v>
+      </c>
+    </row>
+    <row r="259" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>304</v>
       </c>
@@ -13161,8 +14490,14 @@
       <c r="P259">
         <v>0.87081577987855496</v>
       </c>
-    </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q259">
+        <v>75.707866666666604</v>
+      </c>
+      <c r="R259">
+        <v>16101.2166699999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>305</v>
       </c>
@@ -13211,8 +14546,14 @@
       <c r="P260">
         <v>-0.12313193914251834</v>
       </c>
-    </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q260">
+        <v>76.369666666666603</v>
+      </c>
+      <c r="R260">
+        <v>16264.438630000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>306</v>
       </c>
@@ -13261,8 +14602,14 @@
       <c r="P261">
         <v>-9.164452387938779E-2</v>
       </c>
-    </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q261">
+        <v>76.813366666666596</v>
+      </c>
+      <c r="R261">
+        <v>16351.6132</v>
+      </c>
+    </row>
+    <row r="262" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>307</v>
       </c>
@@ -13311,8 +14658,14 @@
       <c r="P262">
         <v>1.3093938889589284E-2</v>
       </c>
-    </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q262">
+        <v>77.150633333333303</v>
+      </c>
+      <c r="R262">
+        <v>16517.1281099999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>308</v>
       </c>
@@ -13361,8 +14714,14 @@
       <c r="P263">
         <v>-0.53568831707606701</v>
       </c>
-    </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q263">
+        <v>77.1976333333333</v>
+      </c>
+      <c r="R263">
+        <v>16657.125209999998</v>
+      </c>
+    </row>
+    <row r="264" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>309</v>
       </c>
@@ -13411,8 +14770,14 @@
       <c r="P264">
         <v>-0.32542750280703575</v>
       </c>
-    </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q264">
+        <v>76.764600000000002</v>
+      </c>
+      <c r="R264">
+        <v>16822.157350000001</v>
+      </c>
+    </row>
+    <row r="265" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>310</v>
       </c>
@@ -13461,8 +14826,14 @@
       <c r="P265">
         <v>-0.15151255472434311</v>
       </c>
-    </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q265">
+        <v>76.748733333333305</v>
+      </c>
+      <c r="R265">
+        <v>16981.95275</v>
+      </c>
+    </row>
+    <row r="266" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>311</v>
       </c>
@@ -13511,8 +14882,14 @@
       <c r="P266">
         <v>-0.30080408995218155</v>
       </c>
-    </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q266">
+        <v>76.988866666666596</v>
+      </c>
+      <c r="R266">
+        <v>17126.82044</v>
+      </c>
+    </row>
+    <row r="267" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>312</v>
       </c>
@@ -13561,8 +14938,14 @@
       <c r="P267">
         <v>-0.70413590808899684</v>
       </c>
-    </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q267">
+        <v>77.065966666666597</v>
+      </c>
+      <c r="R267">
+        <v>17242.403119999999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>313</v>
       </c>
@@ -13611,8 +14994,14 @@
       <c r="P268">
         <v>-0.46593789536935992</v>
       </c>
-    </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q268">
+        <v>77.160866666666607</v>
+      </c>
+      <c r="R268">
+        <v>17406.678759999999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>314</v>
       </c>
@@ -13661,8 +15050,14 @@
       <c r="P269">
         <v>-0.42669884120065577</v>
       </c>
-    </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q269">
+        <v>77.490566666666595</v>
+      </c>
+      <c r="R269">
+        <v>17580.204669999999</v>
+      </c>
+    </row>
+    <row r="270" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>315</v>
       </c>
@@ -13711,8 +15106,14 @@
       <c r="P270">
         <v>-0.4953334794468785</v>
       </c>
-    </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q270">
+        <v>77.830500000000001</v>
+      </c>
+      <c r="R270">
+        <v>17729.745340000001</v>
+      </c>
+    </row>
+    <row r="271" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>316</v>
       </c>
@@ -13761,8 +15162,14 @@
       <c r="P271">
         <v>-0.7310789451479015</v>
       </c>
-    </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q271">
+        <v>78.688533333333297</v>
+      </c>
+      <c r="R271">
+        <v>17914.59679</v>
+      </c>
+    </row>
+    <row r="272" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>317</v>
       </c>
@@ -13811,8 +15218,14 @@
       <c r="P272">
         <v>-0.70993570910325066</v>
       </c>
-    </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q272">
+        <v>78.894000000000005</v>
+      </c>
+      <c r="R272">
+        <v>18074.92195</v>
+      </c>
+    </row>
+    <row r="273" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>318</v>
       </c>
@@ -13861,8 +15274,14 @@
       <c r="P273">
         <v>-0.61286750901901732</v>
       </c>
-    </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q273">
+        <v>79.134799999999998</v>
+      </c>
+      <c r="R273">
+        <v>18181.00086</v>
+      </c>
+    </row>
+    <row r="274" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>319</v>
       </c>
@@ -13911,8 +15330,14 @@
       <c r="P274">
         <v>-0.38551927940093794</v>
       </c>
-    </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q274">
+        <v>78.138566666666605</v>
+      </c>
+      <c r="R274">
+        <v>18260.110290000001</v>
+      </c>
+    </row>
+    <row r="275" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>320</v>
       </c>
@@ -13961,8 +15386,14 @@
       <c r="P275">
         <v>-0.54456423459797343</v>
       </c>
-    </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q275">
+        <v>77.045100000000005</v>
+      </c>
+      <c r="R275">
+        <v>18455.77965</v>
+      </c>
+    </row>
+    <row r="276" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>321</v>
       </c>
@@ -14011,8 +15442,14 @@
       <c r="P276">
         <v>-0.47314489399208209</v>
       </c>
-    </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q276">
+        <v>77.147666666666595</v>
+      </c>
+      <c r="R276">
+        <v>18596.21773</v>
+      </c>
+    </row>
+    <row r="277" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>322</v>
       </c>
@@ -14061,8 +15498,14 @@
       <c r="P277">
         <v>-0.46263053977762458</v>
       </c>
-    </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q277">
+        <v>76.143833333333305</v>
+      </c>
+      <c r="R277">
+        <v>18687.608230000002</v>
+      </c>
+    </row>
+    <row r="278" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>323</v>
       </c>
@@ -14111,8 +15554,14 @@
       <c r="P278">
         <v>-0.68736472304501761</v>
       </c>
-    </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q278">
+        <v>75.670866666666598</v>
+      </c>
+      <c r="R278">
+        <v>18763.324339999999</v>
+      </c>
+    </row>
+    <row r="279" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>324</v>
       </c>
@@ -14161,8 +15610,14 @@
       <c r="P279">
         <v>-0.39739588928911229</v>
       </c>
-    </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q279">
+        <v>75.3767</v>
+      </c>
+      <c r="R279">
+        <v>18983.64286</v>
+      </c>
+    </row>
+    <row r="280" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>325</v>
       </c>
@@ -14211,8 +15666,14 @@
       <c r="P280">
         <v>-0.12038858508614579</v>
       </c>
-    </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q280">
+        <v>75.443466666666595</v>
+      </c>
+      <c r="R280">
+        <v>19125.0067099999</v>
+      </c>
+    </row>
+    <row r="281" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>326</v>
       </c>
@@ -14261,8 +15722,14 @@
       <c r="P281">
         <v>-0.18290260875920125</v>
       </c>
-    </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q281">
+        <v>75.227999999999994</v>
+      </c>
+      <c r="R281">
+        <v>19310.567069999899</v>
+      </c>
+    </row>
+    <row r="282" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>327</v>
       </c>
@@ -14311,8 +15778,14 @@
       <c r="P282">
         <v>0.16737953708714531</v>
       </c>
-    </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q282">
+        <v>75.204133333333303</v>
+      </c>
+      <c r="R282">
+        <v>19502.60772</v>
+      </c>
+    </row>
+    <row r="283" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>328</v>
       </c>
@@ -14361,8 +15834,14 @@
       <c r="P283">
         <v>1.2655153472401467E-2</v>
       </c>
-    </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q283">
+        <v>76.394333333333293</v>
+      </c>
+      <c r="R283">
+        <v>19648.047930000001</v>
+      </c>
+    </row>
+    <row r="284" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>329</v>
       </c>
@@ -14411,8 +15890,14 @@
       <c r="P284">
         <v>0.35203107147119439</v>
       </c>
-    </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q284">
+        <v>76.339733333333299</v>
+      </c>
+      <c r="R284">
+        <v>19846.550209999899</v>
+      </c>
+    </row>
+    <row r="285" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>330</v>
       </c>
@@ -14461,8 +15946,14 @@
       <c r="P285">
         <v>0.75437605629786486</v>
       </c>
-    </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q285">
+        <v>77.620933333333298</v>
+      </c>
+      <c r="R285">
+        <v>20069.215560000001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>331</v>
       </c>
@@ -14511,8 +16002,14 @@
       <c r="P286">
         <v>0.37010280142496355</v>
       </c>
-    </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q286">
+        <v>78.211433333333304</v>
+      </c>
+      <c r="R286">
+        <v>20300.652030000001</v>
+      </c>
+    </row>
+    <row r="287" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>332</v>
       </c>
@@ -14561,8 +16058,14 @@
       <c r="P287">
         <v>0.43624881294104595</v>
       </c>
-    </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q287">
+        <v>79.189433333333298</v>
+      </c>
+      <c r="R287">
+        <v>20551.45563</v>
+      </c>
+    </row>
+    <row r="288" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>333</v>
       </c>
@@ -14611,8 +16114,14 @@
       <c r="P288">
         <v>0.4690850073091119</v>
       </c>
-    </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q288">
+        <v>79.774133333333296</v>
+      </c>
+      <c r="R288">
+        <v>20749.390950000001</v>
+      </c>
+    </row>
+    <row r="289" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>334</v>
       </c>
@@ -14661,8 +16170,14 @@
       <c r="P289">
         <v>0.4664039581587493</v>
       </c>
-    </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q289">
+        <v>79.755533333333304</v>
+      </c>
+      <c r="R289">
+        <v>20949.010419999999</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>335</v>
       </c>
@@ -14711,8 +16226,14 @@
       <c r="P290">
         <v>0.2929262229925918</v>
       </c>
-    </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q290">
+        <v>78.741266666666604</v>
+      </c>
+      <c r="R290">
+        <v>21123.413550000001</v>
+      </c>
+    </row>
+    <row r="291" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>336</v>
       </c>
@@ -14761,8 +16282,14 @@
       <c r="P291">
         <v>-0.34707823371644858</v>
       </c>
-    </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q291">
+        <v>77.9784333333333</v>
+      </c>
+      <c r="R291">
+        <v>21344.738310000001</v>
+      </c>
+    </row>
+    <row r="292" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>337</v>
       </c>
@@ -14811,8 +16338,14 @@
       <c r="P292">
         <v>-0.18328597077833608</v>
       </c>
-    </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q292">
+        <v>77.687899999999999</v>
+      </c>
+      <c r="R292">
+        <v>21525.169300000001</v>
+      </c>
+    </row>
+    <row r="293" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>338</v>
       </c>
@@ -14861,8 +16394,14 @@
       <c r="P293">
         <v>9.7422709727764151E-2</v>
       </c>
-    </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q293">
+        <v>77.067833333333297</v>
+      </c>
+      <c r="R293">
+        <v>21701.77879</v>
+      </c>
+    </row>
+    <row r="294" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>339</v>
       </c>
@@ -14911,8 +16450,14 @@
       <c r="P294">
         <v>1.2760288500036898</v>
       </c>
-    </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q294">
+        <v>75.694699999999997</v>
+      </c>
+      <c r="R294">
+        <v>21910.4794</v>
+      </c>
+    </row>
+    <row r="295" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>340</v>
       </c>
@@ -14961,8 +16506,14 @@
       <c r="P295">
         <v>2.6504134169281395</v>
       </c>
-    </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q295">
+        <v>66.264633333333293</v>
+      </c>
+      <c r="R295">
+        <v>21937.478340000001</v>
+      </c>
+    </row>
+    <row r="296" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>341</v>
       </c>
@@ -15011,8 +16562,14 @@
       <c r="P296">
         <v>1.5708838744787226</v>
       </c>
-    </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q296">
+        <v>72.791533333333305</v>
+      </c>
+      <c r="R296">
+        <v>22236.468499999999</v>
+      </c>
+    </row>
+    <row r="297" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>342</v>
       </c>
@@ -15061,8 +16618,14 @@
       <c r="P297">
         <v>0.84101964523521544</v>
       </c>
-    </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q297">
+        <v>74.505866666666606</v>
+      </c>
+      <c r="R297">
+        <v>22496.5728099999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>343</v>
       </c>
@@ -15111,8 +16674,14 @@
       <c r="P298">
         <v>1.8125710611957047</v>
       </c>
-    </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q298">
+        <v>75.119933333333293</v>
+      </c>
+      <c r="R298">
+        <v>22892.748960000001</v>
+      </c>
+    </row>
+    <row r="299" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>344</v>
       </c>
@@ -15161,8 +16730,14 @@
       <c r="P299">
         <v>2.7863467903996542</v>
       </c>
-    </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q299">
+        <v>76.796433333333297</v>
+      </c>
+      <c r="R299">
+        <v>23362.233550000001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>345</v>
       </c>
@@ -15211,8 +16786,14 @@
       <c r="P300">
         <v>3.1436642571491258</v>
       </c>
-    </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q300">
+        <v>77.471699999999998</v>
+      </c>
+      <c r="R300">
+        <v>23835.078109999999</v>
+      </c>
+    </row>
+    <row r="301" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>346</v>
       </c>
@@ -15261,8 +16842,14 @@
       <c r="P301">
         <v>4.1047427627442366</v>
       </c>
-    </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q301">
+        <v>78.304833333333306</v>
+      </c>
+      <c r="R301">
+        <v>24377.236430000001</v>
+      </c>
+    </row>
+    <row r="302" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>347</v>
       </c>
@@ -15311,8 +16898,14 @@
       <c r="P302">
         <v>3.0170035044765786</v>
       </c>
-    </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q302">
+        <v>78.563666666666606</v>
+      </c>
+      <c r="R302">
+        <v>25006.127509999998</v>
+      </c>
+    </row>
+    <row r="303" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>348</v>
       </c>
@@ -15361,8 +16954,14 @@
       <c r="P303">
         <v>2.7987069343781896</v>
       </c>
-    </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q303">
+        <v>78.863366666666593</v>
+      </c>
+      <c r="R303">
+        <v>25713.223440000002</v>
+      </c>
+    </row>
+    <row r="304" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>349</v>
       </c>
@@ -15411,8 +17010,14 @@
       <c r="P304">
         <v>1.3790706535487358</v>
       </c>
-    </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q304">
+        <v>78.624300000000005</v>
+      </c>
+      <c r="R304">
+        <v>26146.675080000001</v>
+      </c>
+    </row>
+    <row r="305" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>350</v>
       </c>
@@ -15461,8 +17066,14 @@
       <c r="P305">
         <v>1.1801871392587384</v>
       </c>
-    </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q305">
+        <v>77.924033333333298</v>
+      </c>
+      <c r="R305">
+        <v>26536.55228</v>
+      </c>
+    </row>
+    <row r="306" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>351</v>
       </c>
@@ -15511,8 +17122,14 @@
       <c r="P306">
         <v>-0.13135645798565357</v>
       </c>
-    </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q306">
+        <v>77.6708</v>
+      </c>
+      <c r="R306">
+        <v>26927.76916</v>
+      </c>
+    </row>
+    <row r="307" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>352</v>
       </c>
@@ -15561,13 +17178,19 @@
       <c r="P307">
         <v>-1.3189120187753638</v>
       </c>
-    </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q307">
+        <v>77.428100000000001</v>
+      </c>
+      <c r="R307">
+        <v>27202.53426</v>
+      </c>
+    </row>
+    <row r="308" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M308" s="7"/>
       <c r="N308" s="5"/>
       <c r="O308" s="5"/>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.2">
       <c r="N309" s="5"/>
       <c r="O309" s="5"/>
     </row>
@@ -15578,10 +17201,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A502E475-8EEE-9B41-8582-BA225638D4DC}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15780,6 +17403,28 @@
       </c>
       <c r="C18" s="3" t="s">
         <v>356</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>366</v>
+      </c>
+      <c r="B20" t="s">
+        <v>361</v>
+      </c>
+      <c r="C20" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="B21" t="s">
+        <v>362</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -15797,7 +17442,9 @@
     <hyperlink ref="C7" r:id="rId11" xr:uid="{A3005E0F-68E8-E644-A4FE-E3F9D090FBC7}"/>
     <hyperlink ref="C16:C17" r:id="rId12" display="From Survey of Professional Forecasters" xr:uid="{20F22B71-78BF-5343-832A-2C3A55C042EF}"/>
     <hyperlink ref="C18" r:id="rId13" xr:uid="{BE17D7DE-7C3A-D547-8517-01315185F1C7}"/>
+    <hyperlink ref="C21" r:id="rId14" xr:uid="{450EDB1B-9C8C-DD45-B82E-CCF2641048B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Replication Package/Code and Data/(1) Data/Public Data/Regression_Data.xlsx
+++ b/Replication Package/Code and Data/(1) Data/Public Data/Regression_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnathansun/Documents/ec1499/Replication Package/Code and Data/(1) Data/Public Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56970EE-8A19-A241-9DAA-609338DB4A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8AB7CF-FF96-2C43-B455-1BE31239B42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="25080" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="25080" windowHeight="18980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="369">
   <si>
     <t>Date</t>
   </si>
@@ -1135,6 +1135,12 @@
   </si>
   <si>
     <t>Capacity Utilization: Total Index, Percent, Seasonally Adjusted</t>
+  </si>
+  <si>
+    <t>TCU_DETRENDED</t>
+  </si>
+  <si>
+    <t>Capacity Utilization: Total Index, Percent, Seasonally Adjusted minus 10Y rolling average</t>
   </si>
 </sst>
 </file>
@@ -1526,10 +1532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R309"/>
+  <dimension ref="A1:S309"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="B133" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1539,9 +1545,10 @@
     <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1596,8 +1603,11 @@
       <c r="R1" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1638,7 +1648,7 @@
         <v>274.03395189999998</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1679,7 +1689,7 @@
         <v>276.282610699999</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1720,7 +1730,7 @@
         <v>278.32913769999999</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1761,7 +1771,7 @@
         <v>282.05581599999999</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -1802,7 +1812,7 @@
         <v>284.9172681</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -1843,7 +1853,7 @@
         <v>289.75882200000001</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -1884,7 +1894,7 @@
         <v>299.9053002</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -1925,7 +1935,7 @@
         <v>309.42480599999999</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -1966,7 +1976,7 @@
         <v>274.03395189999998</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -2007,7 +2017,7 @@
         <v>276.282610699999</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -2048,7 +2058,7 @@
         <v>278.32913769999999</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -2089,7 +2099,7 @@
         <v>282.05581599999999</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -2130,7 +2140,7 @@
         <v>284.9172681</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -2171,7 +2181,7 @@
         <v>289.75882200000001</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -4929,7 +4939,7 @@
         <v>783.08203000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>126</v>
       </c>
@@ -4973,7 +4983,7 @@
         <v>798.24810319999995</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>127</v>
       </c>
@@ -5019,8 +5029,11 @@
       <c r="R82">
         <v>810.46956990000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>128</v>
       </c>
@@ -5066,8 +5079,11 @@
       <c r="R83">
         <v>823.78636189999997</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S83">
+        <v>-0.77048333333333097</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>129</v>
       </c>
@@ -5113,8 +5129,11 @@
       <c r="R84">
         <v>841.14886569999999</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S84">
+        <v>-0.89063333333332595</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>130</v>
       </c>
@@ -5160,8 +5179,11 @@
       <c r="R85">
         <v>860.33641979999902</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S85">
+        <v>0.18962499999999199</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>131</v>
       </c>
@@ -5207,8 +5229,11 @@
       <c r="R86">
         <v>879.90035479999995</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S86">
+        <v>0.27361999999999398</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>132</v>
       </c>
@@ -5254,8 +5279,11 @@
       <c r="R87">
         <v>899.09676979999995</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S87">
+        <v>0.34334999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>133</v>
       </c>
@@ -5301,8 +5329,11 @@
       <c r="R88">
         <v>918.06164620000004</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S88">
+        <v>6.7142857143664904E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>134</v>
       </c>
@@ -5348,8 +5379,11 @@
       <c r="R89">
         <v>941.34386359999996</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S89">
+        <v>0.27011666666665202</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>135</v>
       </c>
@@ -5395,8 +5429,11 @@
       <c r="R90">
         <v>961.17875230000004</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S90">
+        <v>0.87696296296296306</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>136</v>
       </c>
@@ -5442,8 +5479,11 @@
       <c r="R91">
         <v>983.3084523</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S91">
+        <v>0.28811666666668101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>137</v>
       </c>
@@ -5489,8 +5529,11 @@
       <c r="R92">
         <v>1006.55299</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S92">
+        <v>0.36916666666667097</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>138</v>
       </c>
@@ -5536,8 +5579,11 @@
       <c r="R93">
         <v>1028.7076999999999</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S93">
+        <v>-0.99757777777777701</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>139</v>
       </c>
@@ -5589,8 +5635,11 @@
       <c r="R94">
         <v>1052.2456279999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S94">
+        <v>-3.6157333333333299</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>140</v>
       </c>
@@ -5642,8 +5691,11 @@
       <c r="R95">
         <v>1075.632435</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S95">
+        <v>-4.4966999999999997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>141</v>
       </c>
@@ -5695,8 +5747,11 @@
       <c r="R96">
         <v>1092.998726</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S96">
+        <v>-5.1729066666666599</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>142</v>
       </c>
@@ -5748,8 +5803,11 @@
       <c r="R97">
         <v>1115.9525349999999</v>
       </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S97">
+        <v>-7.1719749999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>143</v>
       </c>
@@ -5801,8 +5859,11 @@
       <c r="R98">
         <v>1141.9851570000001</v>
       </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S98">
+        <v>-5.95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>144</v>
       </c>
@@ -5854,8 +5915,11 @@
       <c r="R99">
         <v>1166.644875</v>
       </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S99">
+        <v>-5.5124074074073999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>145</v>
       </c>
@@ -5907,8 +5971,11 @@
       <c r="R100">
         <v>1188.677003</v>
       </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S100">
+        <v>-5.55682807017544</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>146</v>
       </c>
@@ -5960,8 +6027,11 @@
       <c r="R101">
         <v>1208.845086</v>
       </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S101">
+        <v>-4.10846</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>147</v>
       </c>
@@ -6013,8 +6083,11 @@
       <c r="R102">
         <v>1237.3963349999999</v>
       </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S102">
+        <v>-1.24059682539682</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>148</v>
       </c>
@@ -6066,8 +6139,11 @@
       <c r="R103">
         <v>1254.8895680000001</v>
       </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S103">
+        <v>-0.268574242424236</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>149</v>
       </c>
@@ -6119,8 +6195,11 @@
       <c r="R104">
         <v>1276.5064890000001</v>
       </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S104">
+        <v>0.123575362318831</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>150</v>
       </c>
@@ -6172,8 +6251,11 @@
       <c r="R105">
         <v>1302.520021</v>
       </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S105">
+        <v>2.1988722222222199</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>151</v>
       </c>
@@ -6225,8 +6307,11 @@
       <c r="R106">
         <v>1327.7102190000001</v>
       </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S106">
+        <v>3.6723573333333199</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>152</v>
       </c>
@@ -6278,8 +6363,11 @@
       <c r="R107">
         <v>1359.1456390000001</v>
       </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S107">
+        <v>3.3940935897436</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>153</v>
       </c>
@@ -6331,8 +6419,11 @@
       <c r="R108">
         <v>1397.1871329999999</v>
       </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S108">
+        <v>3.1052283950617201</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>154</v>
       </c>
@@ -6384,8 +6475,11 @@
       <c r="R109">
         <v>1437.3338099999901</v>
       </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S109">
+        <v>3.4495345238095299</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>155</v>
       </c>
@@ -6437,8 +6531,11 @@
       <c r="R110">
         <v>1477.099463</v>
       </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S110">
+        <v>1.77320574712643</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>156</v>
       </c>
@@ -6490,8 +6587,11 @@
       <c r="R111">
         <v>1525.0964240000001</v>
       </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S111">
+        <v>1.0851211111111201</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>157</v>
       </c>
@@ -6543,8 +6643,11 @@
       <c r="R112">
         <v>1582.9788920000001</v>
       </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S112">
+        <v>0.17085913978495099</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>158</v>
       </c>
@@ -6596,8 +6699,11 @@
       <c r="R113">
         <v>1643.0582609999999</v>
       </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S113">
+        <v>-3.59084062499999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>159</v>
       </c>
@@ -6649,8 +6755,11 @@
       <c r="R114">
         <v>1693.87701499999</v>
       </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S114">
+        <v>-9.1500676767676694</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>160</v>
       </c>
@@ -6702,8 +6811,11 @@
       <c r="R115">
         <v>1732.6305789999999</v>
       </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S115">
+        <v>-10.1805009803921</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>161</v>
       </c>
@@ -6755,8 +6867,11 @@
       <c r="R116">
         <v>1776.8473059999999</v>
       </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S116">
+        <v>-8.4637019047618995</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>162</v>
       </c>
@@ -6808,8 +6923,11 @@
       <c r="R117">
         <v>1820.4053819999999</v>
       </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S117">
+        <v>-7.0151685185185197</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>163</v>
       </c>
@@ -6861,8 +6979,11 @@
       <c r="R118">
         <v>1853.490335</v>
       </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S118">
+        <v>-5.0105207207207201</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>164</v>
       </c>
@@ -6914,8 +7035,11 @@
       <c r="R119">
         <v>1886.1097949999901</v>
       </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S119">
+        <v>-4.3917903508771801</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>165</v>
       </c>
@@ -6967,8 +7091,11 @@
       <c r="R120">
         <v>1925.04763</v>
       </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S120">
+        <v>-3.76445897435898</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>166</v>
       </c>
@@ -7020,8 +7147,11 @@
       <c r="R121">
         <v>1974.4854439999999</v>
       </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S121">
+        <v>-2.8169949999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>167</v>
       </c>
@@ -7073,8 +7203,11 @@
       <c r="R122">
         <v>2021.8984329999901</v>
       </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S122">
+        <v>-1.63920833333334</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>168</v>
       </c>
@@ -7126,8 +7259,11 @@
       <c r="R123">
         <v>2067.0156699999998</v>
       </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S123">
+        <v>0.36060833333333098</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>169</v>
       </c>
@@ -7179,8 +7315,11 @@
       <c r="R124">
         <v>2109.323249</v>
       </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S124">
+        <v>0.66306583333333402</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>170</v>
       </c>
@@ -7232,8 +7371,11 @@
       <c r="R125">
         <v>2172.916725</v>
       </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S125">
+        <v>0.57845083333333402</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>171</v>
       </c>
@@ -7285,8 +7427,11 @@
       <c r="R126">
         <v>2223.2557160000001</v>
       </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S126">
+        <v>-0.26296916666667802</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>172</v>
       </c>
@@ -7338,8 +7483,11 @@
       <c r="R127">
         <v>2285.131433</v>
       </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S127">
+        <v>2.43929166666666</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>173</v>
       </c>
@@ -7391,8 +7539,11 @@
       <c r="R128">
         <v>2344.2615839999999</v>
       </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S128">
+        <v>2.51873999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>174</v>
       </c>
@@ -7444,8 +7595,11 @@
       <c r="R129">
         <v>2413.2887460000002</v>
       </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S129">
+        <v>3.33784666666666</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>175</v>
       </c>
@@ -7497,8 +7651,11 @@
       <c r="R130">
         <v>2479.5954430000002</v>
       </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S130">
+        <v>3.10654083333334</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>176</v>
       </c>
@@ -7550,8 +7707,11 @@
       <c r="R131">
         <v>2562.373681</v>
       </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S131">
+        <v>2.3094225000000099</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>177</v>
       </c>
@@ -7603,8 +7763,11 @@
       <c r="R132">
         <v>2639.8152439999999</v>
       </c>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S132">
+        <v>1.5256766666666799</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>178</v>
       </c>
@@ -7656,8 +7819,11 @@
       <c r="R133">
         <v>2708.8784639999999</v>
       </c>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S133">
+        <v>1.37828999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>179</v>
       </c>
@@ -7709,8 +7875,11 @@
       <c r="R134">
         <v>2784.0217789999901</v>
       </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S134">
+        <v>1.22371916666665</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>180</v>
       </c>
@@ -7762,8 +7931,11 @@
       <c r="R135">
         <v>2866.5326500000001</v>
       </c>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S135">
+        <v>-2.7384550000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>181</v>
       </c>
@@ -7815,8 +7987,11 @@
       <c r="R136">
         <v>2944.5695179999998</v>
       </c>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S136">
+        <v>-4.4319383333333304</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>182</v>
       </c>
@@ -7868,8 +8043,11 @@
       <c r="R137">
         <v>3036.4104010000001</v>
       </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S137">
+        <v>-1.9756466666666599</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>183</v>
       </c>
@@ -7921,8 +8099,11 @@
       <c r="R138">
         <v>3126.3115320000002</v>
       </c>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S138">
+        <v>-2.37386916666666</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>184</v>
       </c>
@@ -7974,8 +8155,11 @@
       <c r="R139">
         <v>3208.3339620000002</v>
       </c>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S139">
+        <v>-2.74078166666667</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>185</v>
       </c>
@@ -8027,8 +8211,11 @@
       <c r="R140">
         <v>3290.6037350000001</v>
       </c>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S140">
+        <v>-2.6190408333333099</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>186</v>
       </c>
@@ -8080,8 +8267,11 @@
       <c r="R141">
         <v>3371.1634009999998</v>
       </c>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S141">
+        <v>-4.9268233333333296</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>187</v>
       </c>
@@ -8133,8 +8323,11 @@
       <c r="R142">
         <v>3442.7524869999902</v>
       </c>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S142">
+        <v>-6.8240274999999997</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>188</v>
       </c>
@@ -8186,8 +8379,11 @@
       <c r="R143">
         <v>3513.7869289999999</v>
       </c>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S143">
+        <v>-7.9142258333333402</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>189</v>
       </c>
@@ -8239,8 +8435,11 @@
       <c r="R144">
         <v>3590.9186100000002</v>
       </c>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S144">
+        <v>-8.9808808333333499</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>190</v>
       </c>
@@ -8292,8 +8491,11 @@
       <c r="R145">
         <v>3656.536525</v>
       </c>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S145">
+        <v>-10.172499166666601</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>191</v>
       </c>
@@ -8345,8 +8547,11 @@
       <c r="R146">
         <v>3712.5106619999901</v>
       </c>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S146">
+        <v>-9.0769183333333299</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>192</v>
       </c>
@@ -8398,8 +8603,11 @@
       <c r="R147">
         <v>3769.3899219999998</v>
       </c>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S147">
+        <v>-7.1706174999999996</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>193</v>
       </c>
@@ -8451,8 +8659,11 @@
       <c r="R148">
         <v>3840.055061</v>
       </c>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S148">
+        <v>-4.44016583333332</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>194</v>
       </c>
@@ -8504,8 +8715,11 @@
       <c r="R149">
         <v>3901.1061799999902</v>
       </c>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S149">
+        <v>-2.3465525</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>195</v>
       </c>
@@ -8557,8 +8771,11 @@
       <c r="R150">
         <v>3974.2638459999998</v>
       </c>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S150">
+        <v>-0.13724333333334399</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>196</v>
       </c>
@@ -8610,8 +8827,11 @@
       <c r="R151">
         <v>4043.3373579999902</v>
       </c>
-    </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S151">
+        <v>0.85581750000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>197</v>
       </c>
@@ -8663,8 +8883,11 @@
       <c r="R152">
         <v>4115.627759</v>
       </c>
-    </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S152">
+        <v>1.0203941666666601</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>198</v>
       </c>
@@ -8716,8 +8939,11 @@
       <c r="R153">
         <v>4183.5817029999998</v>
       </c>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S153">
+        <v>0.53422916666666198</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>199</v>
       </c>
@@ -8769,8 +8995,11 @@
       <c r="R154">
         <v>4262.6752850000003</v>
       </c>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S154">
+        <v>9.8650833333323307E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>200</v>
       </c>
@@ -8822,8 +9051,11 @@
       <c r="R155">
         <v>4328.1549059999998</v>
       </c>
-    </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S155">
+        <v>-0.59628416666664896</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>201</v>
       </c>
@@ -8875,8 +9107,11 @@
       <c r="R156">
         <v>4392.479155</v>
       </c>
-    </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S156">
+        <v>-1.3459975000000099</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>202</v>
       </c>
@@ -8928,8 +9163,11 @@
       <c r="R157">
         <v>4455.1133170000003</v>
       </c>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S157">
+        <v>-1.4070425</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>203</v>
       </c>
@@ -8981,8 +9219,11 @@
       <c r="R158">
         <v>4515.1490439999998</v>
       </c>
-    </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S158">
+        <v>-1.2851033333333299</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>204</v>
       </c>
@@ -9034,8 +9275,11 @@
       <c r="R159">
         <v>4569.816417</v>
       </c>
-    </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S159">
+        <v>-1.9902658333333301</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>205</v>
       </c>
@@ -9087,8 +9331,11 @@
       <c r="R160">
         <v>4626.1940379999996</v>
       </c>
-    </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S160">
+        <v>-1.87504916666667</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>206</v>
       </c>
@@ -9140,8 +9387,11 @@
       <c r="R161">
         <v>4689.2588850000002</v>
       </c>
-    </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S161">
+        <v>-1.23339666666667</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>207</v>
       </c>
@@ -9193,8 +9443,11 @@
       <c r="R162">
         <v>4757.3731019999996</v>
       </c>
-    </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S162">
+        <v>-0.495587500000013</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>208</v>
       </c>
@@ -9246,8 +9499,11 @@
       <c r="R163">
         <v>4828.5929640000004</v>
       </c>
-    </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S163">
+        <v>0.52839333333334004</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>209</v>
       </c>
@@ -9299,8 +9555,11 @@
       <c r="R164">
         <v>4903.6704259999997</v>
       </c>
-    </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S164">
+        <v>1.6231324999999901</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>210</v>
       </c>
@@ -9352,8 +9611,11 @@
       <c r="R165">
         <v>4981.7766700000002</v>
       </c>
-    </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S165">
+        <v>3.17699166666665</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>211</v>
       </c>
@@ -9405,8 +9667,11 @@
       <c r="R166">
         <v>5060.2075560000003</v>
       </c>
-    </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S166">
+        <v>3.6767933333333298</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>212</v>
       </c>
@@ -9458,8 +9723,11 @@
       <c r="R167">
         <v>5149.3756999999996</v>
       </c>
-    </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S167">
+        <v>4.3078399999999899</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>213</v>
       </c>
@@ -9511,8 +9779,11 @@
       <c r="R168">
         <v>5251.528894</v>
       </c>
-    </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S168">
+        <v>4.5532658333333398</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>214</v>
       </c>
@@ -9564,8 +9835,11 @@
       <c r="R169">
         <v>5338.2009420000004</v>
       </c>
-    </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S169">
+        <v>5.0235366666666703</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>215</v>
       </c>
@@ -9617,8 +9891,11 @@
       <c r="R170">
         <v>5435.697811</v>
       </c>
-    </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S170">
+        <v>5.1605549999999996</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>216</v>
       </c>
@@ -9670,8 +9947,11 @@
       <c r="R171">
         <v>5535.86913</v>
       </c>
-    </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S171">
+        <v>4.4437308333333396</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>217</v>
       </c>
@@ -9723,8 +10003,11 @@
       <c r="R172">
         <v>5618.9537499999997</v>
       </c>
-    </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S172">
+        <v>3.4258233333333101</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>218</v>
       </c>
@@ -9776,8 +10059,11 @@
       <c r="R173">
         <v>5701.639795</v>
       </c>
-    </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S173">
+        <v>3.1964208333333302</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>219</v>
       </c>
@@ -9829,8 +10115,11 @@
       <c r="R174">
         <v>5805.9271710000003</v>
       </c>
-    </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S174">
+        <v>3.2527041666666698</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>220</v>
       </c>
@@ -9882,8 +10171,11 @@
       <c r="R175">
         <v>5913.4797399999998</v>
       </c>
-    </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S175">
+        <v>3.2102483333333298</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>221</v>
       </c>
@@ -9935,8 +10227,11 @@
       <c r="R176">
         <v>6006.0104849999998</v>
       </c>
-    </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S176">
+        <v>2.9655900000000002</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>222</v>
       </c>
@@ -9988,8 +10283,11 @@
       <c r="R177">
         <v>6091.7236670000002</v>
       </c>
-    </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S177">
+        <v>1.3320308333333299</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>223</v>
       </c>
@@ -10041,8 +10339,11 @@
       <c r="R178">
         <v>6191.9116809999996</v>
       </c>
-    </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S178">
+        <v>-0.444068333333348</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>224</v>
       </c>
@@ -10094,8 +10395,11 @@
       <c r="R179">
         <v>6277.1077580000001</v>
       </c>
-    </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S179">
+        <v>-0.21510166666665401</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>225</v>
       </c>
@@ -10147,8 +10451,11 @@
       <c r="R180">
         <v>6365.4781419999999</v>
       </c>
-    </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S180">
+        <v>0.67291500000000304</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>226</v>
       </c>
@@ -10200,8 +10507,11 @@
       <c r="R181">
         <v>6442.9497009999995</v>
       </c>
-    </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S181">
+        <v>0.47854833333332097</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>227</v>
       </c>
@@ -10253,8 +10563,11 @@
       <c r="R182">
         <v>6506.7752700000001</v>
       </c>
-    </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S182">
+        <v>-0.16788833333335099</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>228</v>
       </c>
@@ -10306,8 +10619,11 @@
       <c r="R183">
         <v>6586.491822</v>
       </c>
-    </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S183">
+        <v>0.59363749999999904</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>229</v>
       </c>
@@ -10359,8 +10675,11 @@
       <c r="R184">
         <v>6660.1796020000002</v>
       </c>
-    </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S184">
+        <v>0.49676999999999699</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>230</v>
       </c>
@@ -10412,8 +10731,11 @@
       <c r="R185">
         <v>6748.6188319999901</v>
       </c>
-    </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S185">
+        <v>0.580768333333324</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>231</v>
       </c>
@@ -10465,8 +10787,11 @@
       <c r="R186">
         <v>6829.8161959999998</v>
       </c>
-    </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S186">
+        <v>0.67437999999999898</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>232</v>
       </c>
@@ -10518,8 +10843,11 @@
       <c r="R187">
         <v>6915.2896099999998</v>
       </c>
-    </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S187">
+        <v>0.29727499999999901</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>233</v>
       </c>
@@ -10571,8 +10899,11 @@
       <c r="R188">
         <v>7002.2222299999903</v>
       </c>
-    </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S188">
+        <v>0.137911666666681</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>234</v>
       </c>
@@ -10624,8 +10955,11 @@
       <c r="R189">
         <v>7087.1289349999997</v>
       </c>
-    </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S189">
+        <v>0.86884750000000099</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>235</v>
       </c>
@@ -10677,8 +11011,11 @@
       <c r="R190">
         <v>7168.7985559999997</v>
       </c>
-    </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S190">
+        <v>1.25678666666667</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>236</v>
       </c>
@@ -10730,8 +11067,11 @@
       <c r="R191">
         <v>7251.8065569999899</v>
       </c>
-    </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S191">
+        <v>2.0274124999999898</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>237</v>
       </c>
@@ -10783,8 +11123,11 @@
       <c r="R192">
         <v>7343.2918540000001</v>
       </c>
-    </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S192">
+        <v>2.2570833333333402</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>238</v>
       </c>
@@ -10836,8 +11179,11 @@
       <c r="R193">
         <v>7434.1555840000001</v>
       </c>
-    </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S193">
+        <v>3.0288124999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>239</v>
       </c>
@@ -10889,8 +11235,11 @@
       <c r="R194">
         <v>7526.2459250000002</v>
       </c>
-    </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S194">
+        <v>2.9491416666666601</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>240</v>
       </c>
@@ -10942,8 +11291,11 @@
       <c r="R195">
         <v>7615.5385819999901</v>
       </c>
-    </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S195">
+        <v>2.2369383333333199</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>241</v>
       </c>
@@ -10995,8 +11347,11 @@
       <c r="R196">
         <v>7706.9652889999998</v>
       </c>
-    </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S196">
+        <v>1.98530416666666</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>242</v>
       </c>
@@ -11048,8 +11403,11 @@
       <c r="R197">
         <v>7799.8132290000003</v>
       </c>
-    </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S197">
+        <v>1.5173808333333301</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>243</v>
       </c>
@@ -11101,8 +11459,11 @@
       <c r="R198">
         <v>7894.5567289999999</v>
       </c>
-    </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S198">
+        <v>0.861476666666675</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>244</v>
       </c>
@@ -11154,8 +11515,11 @@
       <c r="R199">
         <v>7988.2158040000004</v>
       </c>
-    </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S199">
+        <v>1.3489425000000199</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>245</v>
       </c>
@@ -11207,8 +11571,11 @@
       <c r="R200">
         <v>8079.9808890000004</v>
       </c>
-    </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S200">
+        <v>1.1529433333333099</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>246</v>
       </c>
@@ -11260,8 +11627,11 @@
       <c r="R201">
         <v>8193.5555000000004</v>
       </c>
-    </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S201">
+        <v>1.05867666666668</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>247</v>
       </c>
@@ -11313,8 +11683,11 @@
       <c r="R202">
         <v>8317.3596129999896</v>
       </c>
-    </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S202">
+        <v>1.3176650000000001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>248</v>
       </c>
@@ -11366,8 +11739,11 @@
       <c r="R203">
         <v>8412.5565750000005</v>
       </c>
-    </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S203">
+        <v>1.1651975000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>249</v>
       </c>
@@ -11419,8 +11795,11 @@
       <c r="R204">
         <v>8532.1647819999998</v>
       </c>
-    </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S204">
+        <v>1.6016366666666599</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>250</v>
       </c>
@@ -11472,8 +11851,11 @@
       <c r="R205">
         <v>8646.776124</v>
       </c>
-    </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S205">
+        <v>2.0569649999999902</v>
+      </c>
+    </row>
+    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>251</v>
       </c>
@@ -11528,8 +11910,11 @@
       <c r="R206">
         <v>8748.0520730000007</v>
       </c>
-    </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S206">
+        <v>1.29724833333332</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>252</v>
       </c>
@@ -11584,8 +11969,11 @@
       <c r="R207">
         <v>8860.6284070000002</v>
       </c>
-    </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S207">
+        <v>0.259667499999991</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>253</v>
       </c>
@@ -11640,8 +12028,11 @@
       <c r="R208">
         <v>8992.1209699999999</v>
       </c>
-    </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S208">
+        <v>-0.44330083333333897</v>
+      </c>
+    </row>
+    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>254</v>
       </c>
@@ -11696,8 +12087,11 @@
       <c r="R209">
         <v>9113.5932269999994</v>
       </c>
-    </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S209">
+        <v>-0.40578749999998798</v>
+      </c>
+    </row>
+    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>255</v>
       </c>
@@ -11752,8 +12146,11 @@
       <c r="R210">
         <v>9241.4633269999995</v>
       </c>
-    </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S210">
+        <v>-0.43371583333333702</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>256</v>
       </c>
@@ -11808,8 +12205,11 @@
       <c r="R211">
         <v>9376.48514599999</v>
       </c>
-    </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S211">
+        <v>-0.53743249999999398</v>
+      </c>
+    </row>
+    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>257</v>
       </c>
@@ -11864,8 +12264,11 @@
       <c r="R212">
         <v>9511.2070379999896</v>
       </c>
-    </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S212">
+        <v>-0.67576166666665904</v>
+      </c>
+    </row>
+    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>258</v>
       </c>
@@ -11920,8 +12323,11 @@
       <c r="R213">
         <v>9667.9043450000008</v>
       </c>
-    </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S213">
+        <v>-0.144815833333339</v>
+      </c>
+    </row>
+    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>259</v>
       </c>
@@ -11976,8 +12382,11 @@
       <c r="R214">
         <v>9837.7982300000003</v>
       </c>
-    </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S214">
+        <v>-0.221549166666662</v>
+      </c>
+    </row>
+    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>260</v>
       </c>
@@ -12032,8 +12441,11 @@
       <c r="R215">
         <v>10002.464250000001</v>
       </c>
-    </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S215">
+        <v>-5.8244999999999401E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>261</v>
       </c>
@@ -12088,8 +12500,11 @@
       <c r="R216">
         <v>10160.78751</v>
       </c>
-    </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S216">
+        <v>-0.87602916666666797</v>
+      </c>
+    </row>
+    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>262</v>
       </c>
@@ -12144,8 +12559,11 @@
       <c r="R217">
         <v>10310.7019599999</v>
       </c>
-    </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S217">
+        <v>-1.84311000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>263</v>
       </c>
@@ -12200,8 +12618,11 @@
       <c r="R218">
         <v>10469.673650000001</v>
       </c>
-    </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S218">
+        <v>-3.5500641666666701</v>
+      </c>
+    </row>
+    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>264</v>
       </c>
@@ -12256,8 +12677,11 @@
       <c r="R219">
         <v>10618.901400000001</v>
       </c>
-    </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S219">
+        <v>-5.1644716666666701</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>265</v>
       </c>
@@ -12312,8 +12736,11 @@
       <c r="R220">
         <v>10742.049279999999</v>
       </c>
-    </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S220">
+        <v>-6.74364416666665</v>
+      </c>
+    </row>
+    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>266</v>
       </c>
@@ -12368,8 +12795,11 @@
       <c r="R221">
         <v>10852.96509</v>
       </c>
-    </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S221">
+        <v>-7.9103733333333199</v>
+      </c>
+    </row>
+    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>267</v>
       </c>
@@ -12424,8 +12854,11 @@
       <c r="R222">
         <v>10960.516659999999</v>
       </c>
-    </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S222">
+        <v>-7.65268999999999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>268</v>
       </c>
@@ -12480,8 +12913,11 @@
       <c r="R223">
         <v>11069.773999999999</v>
       </c>
-    </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S223">
+        <v>-6.6068483333333301</v>
+      </c>
+    </row>
+    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>269</v>
       </c>
@@ -12536,8 +12972,11 @@
       <c r="R224">
         <v>11192.443229999901</v>
       </c>
-    </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S224">
+        <v>-6.0908658333333303</v>
+      </c>
+    </row>
+    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>270</v>
       </c>
@@ -12592,8 +13031,11 @@
       <c r="R225">
         <v>11326.62543</v>
       </c>
-    </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S225">
+        <v>-5.9148858333333401</v>
+      </c>
+    </row>
+    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>271</v>
       </c>
@@ -12648,8 +13090,11 @@
       <c r="R226">
         <v>11451.72941</v>
       </c>
-    </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S226">
+        <v>-5.1988241666666601</v>
+      </c>
+    </row>
+    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>272</v>
       </c>
@@ -12704,8 +13149,11 @@
       <c r="R227">
         <v>11562.500539999999</v>
       </c>
-    </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S227">
+        <v>-5.5145024999999697</v>
+      </c>
+    </row>
+    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>273</v>
       </c>
@@ -12760,8 +13208,11 @@
       <c r="R228">
         <v>11699.594999999999</v>
       </c>
-    </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S228">
+        <v>-4.8360033333333297</v>
+      </c>
+    </row>
+    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>274</v>
       </c>
@@ -12816,8 +13267,11 @@
       <c r="R229">
         <v>11843.26613</v>
       </c>
-    </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S229">
+        <v>-3.9592608333333299</v>
+      </c>
+    </row>
+    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>275</v>
       </c>
@@ -12872,8 +13326,11 @@
       <c r="R230">
         <v>12002.115690000001</v>
       </c>
-    </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S230">
+        <v>-3.2790908333333202</v>
+      </c>
+    </row>
+    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>276</v>
       </c>
@@ -12928,8 +13385,11 @@
       <c r="R231">
         <v>12174.96017</v>
       </c>
-    </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S231">
+        <v>-2.6805366666666499</v>
+      </c>
+    </row>
+    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>277</v>
       </c>
@@ -12984,8 +13444,11 @@
       <c r="R232">
         <v>12330.283740000001</v>
       </c>
-    </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S232">
+        <v>-2.0913999999999899</v>
+      </c>
+    </row>
+    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>278</v>
       </c>
@@ -13040,8 +13503,11 @@
       <c r="R233">
         <v>12505.216259999999</v>
       </c>
-    </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S233">
+        <v>-0.92411833333332505</v>
+      </c>
+    </row>
+    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>279</v>
       </c>
@@ -13096,8 +13562,11 @@
       <c r="R234">
         <v>12683.22687</v>
       </c>
-    </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S234">
+        <v>0.13234249999999201</v>
+      </c>
+    </row>
+    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>280</v>
       </c>
@@ -13152,8 +13621,11 @@
       <c r="R235">
         <v>12850.620199999999</v>
       </c>
-    </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S235">
+        <v>0.39464749999998999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>281</v>
       </c>
@@ -13208,8 +13680,11 @@
       <c r="R236">
         <v>13042.589889999999</v>
       </c>
-    </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S236">
+        <v>-0.200717499999996</v>
+      </c>
+    </row>
+    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>282</v>
       </c>
@@ -13264,8 +13739,11 @@
       <c r="R237">
         <v>13223.02454</v>
       </c>
-    </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S237">
+        <v>0.23530499999999599</v>
+      </c>
+    </row>
+    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>283</v>
       </c>
@@ -13320,8 +13798,11 @@
       <c r="R238">
         <v>13387.825409999999</v>
       </c>
-    </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S238">
+        <v>0.68554250000001105</v>
+      </c>
+    </row>
+    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>284</v>
       </c>
@@ -13376,8 +13857,11 @@
       <c r="R239">
         <v>13574.2659199999</v>
       </c>
-    </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S239">
+        <v>0.82344833333331702</v>
+      </c>
+    </row>
+    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>285</v>
       </c>
@@ -13432,8 +13916,11 @@
       <c r="R240">
         <v>13735.82524</v>
       </c>
-    </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S240">
+        <v>0.75661333333334801</v>
+      </c>
+    </row>
+    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>286</v>
       </c>
@@ -13488,8 +13975,11 @@
       <c r="R241">
         <v>13848.42834</v>
       </c>
-    </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S241">
+        <v>0.49674333333334098</v>
+      </c>
+    </row>
+    <row r="242" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>287</v>
       </c>
@@ -13544,8 +14034,11 @@
       <c r="R242">
         <v>14045.73165</v>
       </c>
-    </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S242">
+        <v>0.851696666666654</v>
+      </c>
+    </row>
+    <row r="243" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>288</v>
       </c>
@@ -13600,8 +14093,11 @@
       <c r="R243">
         <v>14212.10318</v>
       </c>
-    </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S243">
+        <v>1.40179916666667</v>
+      </c>
+    </row>
+    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>289</v>
       </c>
@@ -13656,8 +14152,11 @@
       <c r="R244">
         <v>14361.15186</v>
       </c>
-    </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S244">
+        <v>1.3119049999999901</v>
+      </c>
+    </row>
+    <row r="245" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>290</v>
       </c>
@@ -13712,8 +14211,11 @@
       <c r="R245">
         <v>14491.58066</v>
       </c>
-    </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S245">
+        <v>1.5605916666666599</v>
+      </c>
+    </row>
+    <row r="246" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>291</v>
       </c>
@@ -13768,8 +14270,11 @@
       <c r="R246">
         <v>14618.168019999999</v>
       </c>
-    </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S246">
+        <v>1.44882500000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>292</v>
       </c>
@@ -13824,8 +14329,11 @@
       <c r="R247">
         <v>14761.03608</v>
       </c>
-    </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S247">
+        <v>0.398361666666673</v>
+      </c>
+    </row>
+    <row r="248" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>293</v>
       </c>
@@ -13880,8 +14388,11 @@
       <c r="R248">
         <v>14942.714379999999</v>
       </c>
-    </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S248">
+        <v>-2.12883333333333</v>
+      </c>
+    </row>
+    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>294</v>
       </c>
@@ -13936,8 +14447,11 @@
       <c r="R249">
         <v>15046.2381</v>
       </c>
-    </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S249">
+        <v>-5.4839849999999997</v>
+      </c>
+    </row>
+    <row r="250" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>295</v>
       </c>
@@ -13992,8 +14506,11 @@
       <c r="R250">
         <v>15096.6798</v>
       </c>
-    </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S250">
+        <v>-9.5584516666666701</v>
+      </c>
+    </row>
+    <row r="251" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>296</v>
       </c>
@@ -14048,8 +14565,11 @@
       <c r="R251">
         <v>15130.24626</v>
       </c>
-    </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S251">
+        <v>-11.28121</v>
+      </c>
+    </row>
+    <row r="252" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>297</v>
       </c>
@@ -14104,8 +14624,11 @@
       <c r="R252">
         <v>15203.519689999999</v>
       </c>
-    </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S252">
+        <v>-9.8159524999999892</v>
+      </c>
+    </row>
+    <row r="253" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>298</v>
       </c>
@@ -14160,8 +14683,11 @@
       <c r="R253">
         <v>15305.270699999999</v>
       </c>
-    </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S253">
+        <v>-8.0910066666666491</v>
+      </c>
+    </row>
+    <row r="254" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>299</v>
       </c>
@@ -14216,8 +14742,11 @@
       <c r="R254">
         <v>15403.516519999999</v>
       </c>
-    </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S254">
+        <v>-6.0259866666666602</v>
+      </c>
+    </row>
+    <row r="255" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>300</v>
       </c>
@@ -14272,8 +14801,11 @@
       <c r="R255">
         <v>15533.996590000001</v>
       </c>
-    </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S255">
+        <v>-3.9980841666666498</v>
+      </c>
+    </row>
+    <row r="256" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>301</v>
       </c>
@@ -14328,8 +14860,11 @@
       <c r="R256">
         <v>15638.957419999901</v>
       </c>
-    </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S256">
+        <v>-2.4868233333333301</v>
+      </c>
+    </row>
+    <row r="257" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>302</v>
       </c>
@@ -14384,8 +14919,11 @@
       <c r="R257">
         <v>15789.3742699999</v>
       </c>
-    </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S257">
+        <v>-1.7831791666666701</v>
+      </c>
+    </row>
+    <row r="258" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>303</v>
       </c>
@@ -14440,8 +14978,11 @@
       <c r="R258">
         <v>15931.952219999999</v>
       </c>
-    </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S258">
+        <v>-1.1826191666666599</v>
+      </c>
+    </row>
+    <row r="259" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>304</v>
       </c>
@@ -14496,8 +15037,11 @@
       <c r="R259">
         <v>16101.2166699999</v>
       </c>
-    </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S259">
+        <v>-0.887031666666658</v>
+      </c>
+    </row>
+    <row r="260" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>305</v>
       </c>
@@ -14552,8 +15096,11 @@
       <c r="R260">
         <v>16264.438630000001</v>
       </c>
-    </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S260">
+        <v>-0.249489166666677</v>
+      </c>
+    </row>
+    <row r="261" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>306</v>
       </c>
@@ -14608,8 +15155,11 @@
       <c r="R261">
         <v>16351.6132</v>
       </c>
-    </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S261">
+        <v>0.125794166666651</v>
+      </c>
+    </row>
+    <row r="262" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>307</v>
       </c>
@@ -14664,8 +15214,11 @@
       <c r="R262">
         <v>16517.1281099999</v>
       </c>
-    </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S262">
+        <v>0.38917083333333802</v>
+      </c>
+    </row>
+    <row r="263" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>308</v>
       </c>
@@ -14720,8 +15273,11 @@
       <c r="R263">
         <v>16657.125209999998</v>
       </c>
-    </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S263">
+        <v>0.38375999999999499</v>
+      </c>
+    </row>
+    <row r="264" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>309</v>
       </c>
@@ -14776,8 +15332,11 @@
       <c r="R264">
         <v>16822.157350000001</v>
       </c>
-    </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S264">
+        <v>-8.1271666666665895E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>310</v>
       </c>
@@ -14832,8 +15391,11 @@
       <c r="R265">
         <v>16981.95275</v>
       </c>
-    </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S265">
+        <v>-0.127834166666659</v>
+      </c>
+    </row>
+    <row r="266" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>311</v>
       </c>
@@ -14888,8 +15450,11 @@
       <c r="R266">
         <v>17126.82044</v>
       </c>
-    </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S266">
+        <v>9.0168333333337999E-2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>312</v>
       </c>
@@ -14944,8 +15509,11 @@
       <c r="R267">
         <v>17242.403119999999</v>
       </c>
-    </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S267">
+        <v>0.13181749999999601</v>
+      </c>
+    </row>
+    <row r="268" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>313</v>
       </c>
@@ -15000,8 +15568,11 @@
       <c r="R268">
         <v>17406.678759999999</v>
       </c>
-    </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S268">
+        <v>0.202721666666661</v>
+      </c>
+    </row>
+    <row r="269" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>314</v>
       </c>
@@ -15056,8 +15627,11 @@
       <c r="R269">
         <v>17580.204669999999</v>
       </c>
-    </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S269">
+        <v>0.51891416666666101</v>
+      </c>
+    </row>
+    <row r="270" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>315</v>
       </c>
@@ -15112,8 +15686,11 @@
       <c r="R270">
         <v>17729.745340000001</v>
       </c>
-    </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S270">
+        <v>0.85072333333333405</v>
+      </c>
+    </row>
+    <row r="271" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>316</v>
       </c>
@@ -15168,8 +15745,11 @@
       <c r="R271">
         <v>17914.59679</v>
       </c>
-    </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S271">
+        <v>1.6907924999999999</v>
+      </c>
+    </row>
+    <row r="272" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>317</v>
       </c>
@@ -15224,8 +15804,11 @@
       <c r="R272">
         <v>18074.92195</v>
       </c>
-    </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S272">
+        <v>1.8846341666666699</v>
+      </c>
+    </row>
+    <row r="273" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>318</v>
       </c>
@@ -15280,8 +15863,11 @@
       <c r="R273">
         <v>18181.00086</v>
       </c>
-    </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S273">
+        <v>2.1338224999999902</v>
+      </c>
+    </row>
+    <row r="274" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>319</v>
       </c>
@@ -15336,8 +15922,11 @@
       <c r="R274">
         <v>18260.110290000001</v>
       </c>
-    </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S274">
+        <v>1.19472166666668</v>
+      </c>
+    </row>
+    <row r="275" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>320</v>
       </c>
@@ -15392,8 +15981,11 @@
       <c r="R275">
         <v>18455.77965</v>
       </c>
-    </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S275">
+        <v>0.19019583333333401</v>
+      </c>
+    </row>
+    <row r="276" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>321</v>
       </c>
@@ -15448,8 +16040,11 @@
       <c r="R276">
         <v>18596.21773</v>
       </c>
-    </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S276">
+        <v>0.361814999999992</v>
+      </c>
+    </row>
+    <row r="277" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>322</v>
       </c>
@@ -15504,8 +16099,11 @@
       <c r="R277">
         <v>18687.608230000002</v>
       </c>
-    </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S277">
+        <v>-0.53896749999999805</v>
+      </c>
+    </row>
+    <row r="278" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>323</v>
       </c>
@@ -15560,8 +16158,11 @@
       <c r="R278">
         <v>18763.324339999999</v>
       </c>
-    </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S278">
+        <v>-0.88720750000000204</v>
+      </c>
+    </row>
+    <row r="279" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>324</v>
       </c>
@@ -15616,8 +16217,11 @@
       <c r="R279">
         <v>18983.64286</v>
       </c>
-    </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S279">
+        <v>-1.04759583333333</v>
+      </c>
+    </row>
+    <row r="280" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>325</v>
       </c>
@@ -15672,8 +16276,11 @@
       <c r="R280">
         <v>19125.0067099999</v>
       </c>
-    </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S280">
+        <v>-0.85218666666666798</v>
+      </c>
+    </row>
+    <row r="281" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>326</v>
       </c>
@@ -15728,8 +16335,11 @@
       <c r="R281">
         <v>19310.567069999899</v>
       </c>
-    </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S281">
+        <v>-0.94214333333334799</v>
+      </c>
+    </row>
+    <row r="282" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>327</v>
       </c>
@@ -15784,8 +16394,11 @@
       <c r="R282">
         <v>19502.60772</v>
       </c>
-    </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S282">
+        <v>-0.83311166666666703</v>
+      </c>
+    </row>
+    <row r="283" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>328</v>
       </c>
@@ -15840,8 +16453,11 @@
       <c r="R283">
         <v>19648.047930000001</v>
       </c>
-    </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S283">
+        <v>0.47224583333333198</v>
+      </c>
+    </row>
+    <row r="284" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>329</v>
       </c>
@@ -15896,8 +16512,11 @@
       <c r="R284">
         <v>19846.550209999899</v>
       </c>
-    </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S284">
+        <v>0.52975583333333898</v>
+      </c>
+    </row>
+    <row r="285" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>330</v>
       </c>
@@ -15952,8 +16571,11 @@
       <c r="R285">
         <v>20069.215560000001</v>
       </c>
-    </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S285">
+        <v>1.8948716666666501</v>
+      </c>
+    </row>
+    <row r="286" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>331</v>
       </c>
@@ -16008,8 +16630,11 @@
       <c r="R286">
         <v>20300.652030000001</v>
       </c>
-    </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S286">
+        <v>2.5496958333333302</v>
+      </c>
+    </row>
+    <row r="287" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>332</v>
       </c>
@@ -16064,8 +16689,11 @@
       <c r="R287">
         <v>20551.45563</v>
       </c>
-    </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S287">
+        <v>3.5392316666666499</v>
+      </c>
+    </row>
+    <row r="288" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>333</v>
       </c>
@@ -16120,8 +16748,11 @@
       <c r="R288">
         <v>20749.390950000001</v>
       </c>
-    </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S288">
+        <v>4.0544049999999796</v>
+      </c>
+    </row>
+    <row r="289" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>334</v>
       </c>
@@ -16176,8 +16807,11 @@
       <c r="R289">
         <v>20949.010419999999</v>
       </c>
-    </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S289">
+        <v>3.8773825000000102</v>
+      </c>
+    </row>
+    <row r="290" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>335</v>
       </c>
@@ -16232,8 +16866,11 @@
       <c r="R290">
         <v>21123.413550000001</v>
       </c>
-    </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S290">
+        <v>2.62001666666665</v>
+      </c>
+    </row>
+    <row r="291" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>336</v>
       </c>
@@ -16288,8 +16925,11 @@
       <c r="R291">
         <v>21344.738310000001</v>
       </c>
-    </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S291">
+        <v>1.5807024999999999</v>
+      </c>
+    </row>
+    <row r="292" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>337</v>
       </c>
@@ -16344,8 +16984,11 @@
       <c r="R292">
         <v>21525.169300000001</v>
       </c>
-    </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S292">
+        <v>1.04900833333333</v>
+      </c>
+    </row>
+    <row r="293" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>338</v>
       </c>
@@ -16400,8 +17043,11 @@
       <c r="R293">
         <v>21701.77879</v>
       </c>
-    </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S293">
+        <v>0.238385833333325</v>
+      </c>
+    </row>
+    <row r="294" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>339</v>
       </c>
@@ -16456,8 +17102,11 @@
       <c r="R294">
         <v>21910.4794</v>
       </c>
-    </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S294">
+        <v>-1.2461916666666599</v>
+      </c>
+    </row>
+    <row r="295" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>340</v>
       </c>
@@ -16512,8 +17161,11 @@
       <c r="R295">
         <v>21937.478340000001</v>
       </c>
-    </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S295">
+        <v>-10.507066666666599</v>
+      </c>
+    </row>
+    <row r="296" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>341</v>
       </c>
@@ -16568,8 +17220,11 @@
       <c r="R296">
         <v>22236.468499999999</v>
       </c>
-    </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S296">
+        <v>-3.9408150000000002</v>
+      </c>
+    </row>
+    <row r="297" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>342</v>
       </c>
@@ -16624,8 +17279,11 @@
       <c r="R297">
         <v>22496.5728099999</v>
       </c>
-    </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S297">
+        <v>-2.21587916666665</v>
+      </c>
+    </row>
+    <row r="298" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>343</v>
       </c>
@@ -16680,8 +17338,11 @@
       <c r="R298">
         <v>22892.748960000001</v>
       </c>
-    </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S298">
+        <v>-1.59363083333332</v>
+      </c>
+    </row>
+    <row r="299" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>344</v>
       </c>
@@ -16736,8 +17397,11 @@
       <c r="R299">
         <v>23362.233550000001</v>
       </c>
-    </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S299">
+        <v>5.5654999999987298E-2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>345</v>
       </c>
@@ -16792,8 +17456,11 @@
       <c r="R300">
         <v>23835.078109999999</v>
       </c>
-    </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S300">
+        <v>0.70337083333332295</v>
+      </c>
+    </row>
+    <row r="301" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>346</v>
       </c>
@@ -16848,8 +17515,11 @@
       <c r="R301">
         <v>24377.236430000001</v>
       </c>
-    </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S301">
+        <v>1.4992175000000001</v>
+      </c>
+    </row>
+    <row r="302" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>347</v>
       </c>
@@ -16904,8 +17574,11 @@
       <c r="R302">
         <v>25006.127509999998</v>
       </c>
-    </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S302">
+        <v>1.7227249999999801</v>
+      </c>
+    </row>
+    <row r="303" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>348</v>
       </c>
@@ -16960,8 +17633,11 @@
       <c r="R303">
         <v>25713.223440000002</v>
       </c>
-    </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S303">
+        <v>1.98078166666667</v>
+      </c>
+    </row>
+    <row r="304" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>349</v>
       </c>
@@ -17016,8 +17692,11 @@
       <c r="R304">
         <v>26146.675080000001</v>
       </c>
-    </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S304">
+        <v>1.6952225000000101</v>
+      </c>
+    </row>
+    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>350</v>
       </c>
@@ -17072,8 +17751,11 @@
       <c r="R305">
         <v>26536.55228</v>
       </c>
-    </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S305">
+        <v>0.96557333333332396</v>
+      </c>
+    </row>
+    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>351</v>
       </c>
@@ -17128,8 +17810,11 @@
       <c r="R306">
         <v>26927.76916</v>
       </c>
-    </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S306">
+        <v>0.69529166666666198</v>
+      </c>
+    </row>
+    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>352</v>
       </c>
@@ -17184,13 +17869,16 @@
       <c r="R307">
         <v>27202.53426</v>
       </c>
-    </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S307">
+        <v>0.44353833333332199</v>
+      </c>
+    </row>
+    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
       <c r="M308" s="7"/>
       <c r="N308" s="5"/>
       <c r="O308" s="5"/>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
       <c r="N309" s="5"/>
       <c r="O309" s="5"/>
     </row>
@@ -17201,10 +17889,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A502E475-8EEE-9B41-8582-BA225638D4DC}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17425,6 +18113,14 @@
       </c>
       <c r="C21" s="3" t="s">
         <v>364</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>368</v>
+      </c>
+      <c r="B22" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>

--- a/Replication Package/Code and Data/(1) Data/Public Data/Regression_Data.xlsx
+++ b/Replication Package/Code and Data/(1) Data/Public Data/Regression_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnathansun/Documents/ec1499/Replication Package/Code and Data/(1) Data/Public Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8AB7CF-FF96-2C43-B455-1BE31239B42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC835D86-DA23-E448-BA17-F7CF345E6B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="25080" windowHeight="18980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="25080" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="367">
   <si>
     <t>Date</t>
   </si>
@@ -1135,12 +1135,6 @@
   </si>
   <si>
     <t>Capacity Utilization: Total Index, Percent, Seasonally Adjusted</t>
-  </si>
-  <si>
-    <t>TCU_DETRENDED</t>
-  </si>
-  <si>
-    <t>Capacity Utilization: Total Index, Percent, Seasonally Adjusted minus 10Y rolling average</t>
   </si>
 </sst>
 </file>
@@ -1532,10 +1526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S309"/>
+  <dimension ref="A1:R309"/>
   <sheetViews>
-    <sheetView topLeftCell="B133" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1548,7 +1542,7 @@
     <col min="19" max="19" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1603,11 +1597,8 @@
       <c r="R1" t="s">
         <v>362</v>
       </c>
-      <c r="S1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1648,7 +1639,7 @@
         <v>274.03395189999998</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1689,7 +1680,7 @@
         <v>276.282610699999</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1730,7 +1721,7 @@
         <v>278.32913769999999</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1771,7 +1762,7 @@
         <v>282.05581599999999</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -1812,7 +1803,7 @@
         <v>284.9172681</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -1853,7 +1844,7 @@
         <v>289.75882200000001</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -1894,7 +1885,7 @@
         <v>299.9053002</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -1935,7 +1926,7 @@
         <v>309.42480599999999</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -1976,7 +1967,7 @@
         <v>274.03395189999998</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -2017,7 +2008,7 @@
         <v>276.282610699999</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -2058,7 +2049,7 @@
         <v>278.32913769999999</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -2099,7 +2090,7 @@
         <v>282.05581599999999</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -2140,7 +2131,7 @@
         <v>284.9172681</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -2181,7 +2172,7 @@
         <v>289.75882200000001</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -4939,7 +4930,7 @@
         <v>783.08203000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>126</v>
       </c>
@@ -4983,7 +4974,7 @@
         <v>798.24810319999995</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>127</v>
       </c>
@@ -5029,11 +5020,8 @@
       <c r="R82">
         <v>810.46956990000001</v>
       </c>
-      <c r="S82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>128</v>
       </c>
@@ -5079,11 +5067,8 @@
       <c r="R83">
         <v>823.78636189999997</v>
       </c>
-      <c r="S83">
-        <v>-0.77048333333333097</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>129</v>
       </c>
@@ -5129,11 +5114,8 @@
       <c r="R84">
         <v>841.14886569999999</v>
       </c>
-      <c r="S84">
-        <v>-0.89063333333332595</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>130</v>
       </c>
@@ -5179,11 +5161,8 @@
       <c r="R85">
         <v>860.33641979999902</v>
       </c>
-      <c r="S85">
-        <v>0.18962499999999199</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>131</v>
       </c>
@@ -5229,11 +5208,8 @@
       <c r="R86">
         <v>879.90035479999995</v>
       </c>
-      <c r="S86">
-        <v>0.27361999999999398</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>132</v>
       </c>
@@ -5279,11 +5255,8 @@
       <c r="R87">
         <v>899.09676979999995</v>
       </c>
-      <c r="S87">
-        <v>0.34334999999999999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>133</v>
       </c>
@@ -5329,11 +5302,8 @@
       <c r="R88">
         <v>918.06164620000004</v>
       </c>
-      <c r="S88">
-        <v>6.7142857143664904E-4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>134</v>
       </c>
@@ -5379,11 +5349,8 @@
       <c r="R89">
         <v>941.34386359999996</v>
       </c>
-      <c r="S89">
-        <v>0.27011666666665202</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>135</v>
       </c>
@@ -5429,11 +5396,8 @@
       <c r="R90">
         <v>961.17875230000004</v>
       </c>
-      <c r="S90">
-        <v>0.87696296296296306</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>136</v>
       </c>
@@ -5479,11 +5443,8 @@
       <c r="R91">
         <v>983.3084523</v>
       </c>
-      <c r="S91">
-        <v>0.28811666666668101</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>137</v>
       </c>
@@ -5529,11 +5490,8 @@
       <c r="R92">
         <v>1006.55299</v>
       </c>
-      <c r="S92">
-        <v>0.36916666666667097</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>138</v>
       </c>
@@ -5579,11 +5537,8 @@
       <c r="R93">
         <v>1028.7076999999999</v>
       </c>
-      <c r="S93">
-        <v>-0.99757777777777701</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>139</v>
       </c>
@@ -5635,11 +5590,8 @@
       <c r="R94">
         <v>1052.2456279999999</v>
       </c>
-      <c r="S94">
-        <v>-3.6157333333333299</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>140</v>
       </c>
@@ -5691,11 +5643,8 @@
       <c r="R95">
         <v>1075.632435</v>
       </c>
-      <c r="S95">
-        <v>-4.4966999999999997</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>141</v>
       </c>
@@ -5747,11 +5696,8 @@
       <c r="R96">
         <v>1092.998726</v>
       </c>
-      <c r="S96">
-        <v>-5.1729066666666599</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>142</v>
       </c>
@@ -5803,11 +5749,8 @@
       <c r="R97">
         <v>1115.9525349999999</v>
       </c>
-      <c r="S97">
-        <v>-7.1719749999999998</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>143</v>
       </c>
@@ -5859,11 +5802,8 @@
       <c r="R98">
         <v>1141.9851570000001</v>
       </c>
-      <c r="S98">
-        <v>-5.95</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>144</v>
       </c>
@@ -5915,11 +5855,8 @@
       <c r="R99">
         <v>1166.644875</v>
       </c>
-      <c r="S99">
-        <v>-5.5124074074073999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>145</v>
       </c>
@@ -5971,11 +5908,8 @@
       <c r="R100">
         <v>1188.677003</v>
       </c>
-      <c r="S100">
-        <v>-5.55682807017544</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>146</v>
       </c>
@@ -6027,11 +5961,8 @@
       <c r="R101">
         <v>1208.845086</v>
       </c>
-      <c r="S101">
-        <v>-4.10846</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>147</v>
       </c>
@@ -6083,11 +6014,8 @@
       <c r="R102">
         <v>1237.3963349999999</v>
       </c>
-      <c r="S102">
-        <v>-1.24059682539682</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>148</v>
       </c>
@@ -6139,11 +6067,8 @@
       <c r="R103">
         <v>1254.8895680000001</v>
       </c>
-      <c r="S103">
-        <v>-0.268574242424236</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>149</v>
       </c>
@@ -6195,11 +6120,8 @@
       <c r="R104">
         <v>1276.5064890000001</v>
       </c>
-      <c r="S104">
-        <v>0.123575362318831</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>150</v>
       </c>
@@ -6251,11 +6173,8 @@
       <c r="R105">
         <v>1302.520021</v>
       </c>
-      <c r="S105">
-        <v>2.1988722222222199</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>151</v>
       </c>
@@ -6307,11 +6226,8 @@
       <c r="R106">
         <v>1327.7102190000001</v>
       </c>
-      <c r="S106">
-        <v>3.6723573333333199</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>152</v>
       </c>
@@ -6363,11 +6279,8 @@
       <c r="R107">
         <v>1359.1456390000001</v>
       </c>
-      <c r="S107">
-        <v>3.3940935897436</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>153</v>
       </c>
@@ -6419,11 +6332,8 @@
       <c r="R108">
         <v>1397.1871329999999</v>
       </c>
-      <c r="S108">
-        <v>3.1052283950617201</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>154</v>
       </c>
@@ -6475,11 +6385,8 @@
       <c r="R109">
         <v>1437.3338099999901</v>
       </c>
-      <c r="S109">
-        <v>3.4495345238095299</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>155</v>
       </c>
@@ -6531,11 +6438,8 @@
       <c r="R110">
         <v>1477.099463</v>
       </c>
-      <c r="S110">
-        <v>1.77320574712643</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>156</v>
       </c>
@@ -6587,11 +6491,8 @@
       <c r="R111">
         <v>1525.0964240000001</v>
       </c>
-      <c r="S111">
-        <v>1.0851211111111201</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>157</v>
       </c>
@@ -6643,11 +6544,8 @@
       <c r="R112">
         <v>1582.9788920000001</v>
       </c>
-      <c r="S112">
-        <v>0.17085913978495099</v>
-      </c>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>158</v>
       </c>
@@ -6699,11 +6597,8 @@
       <c r="R113">
         <v>1643.0582609999999</v>
       </c>
-      <c r="S113">
-        <v>-3.59084062499999</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>159</v>
       </c>
@@ -6755,11 +6650,8 @@
       <c r="R114">
         <v>1693.87701499999</v>
       </c>
-      <c r="S114">
-        <v>-9.1500676767676694</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>160</v>
       </c>
@@ -6811,11 +6703,8 @@
       <c r="R115">
         <v>1732.6305789999999</v>
       </c>
-      <c r="S115">
-        <v>-10.1805009803921</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>161</v>
       </c>
@@ -6867,11 +6756,8 @@
       <c r="R116">
         <v>1776.8473059999999</v>
       </c>
-      <c r="S116">
-        <v>-8.4637019047618995</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>162</v>
       </c>
@@ -6923,11 +6809,8 @@
       <c r="R117">
         <v>1820.4053819999999</v>
       </c>
-      <c r="S117">
-        <v>-7.0151685185185197</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>163</v>
       </c>
@@ -6979,11 +6862,8 @@
       <c r="R118">
         <v>1853.490335</v>
       </c>
-      <c r="S118">
-        <v>-5.0105207207207201</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>164</v>
       </c>
@@ -7035,11 +6915,8 @@
       <c r="R119">
         <v>1886.1097949999901</v>
       </c>
-      <c r="S119">
-        <v>-4.3917903508771801</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>165</v>
       </c>
@@ -7091,11 +6968,8 @@
       <c r="R120">
         <v>1925.04763</v>
       </c>
-      <c r="S120">
-        <v>-3.76445897435898</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>166</v>
       </c>
@@ -7147,11 +7021,8 @@
       <c r="R121">
         <v>1974.4854439999999</v>
       </c>
-      <c r="S121">
-        <v>-2.8169949999999999</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>167</v>
       </c>
@@ -7203,11 +7074,8 @@
       <c r="R122">
         <v>2021.8984329999901</v>
       </c>
-      <c r="S122">
-        <v>-1.63920833333334</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>168</v>
       </c>
@@ -7259,11 +7127,8 @@
       <c r="R123">
         <v>2067.0156699999998</v>
       </c>
-      <c r="S123">
-        <v>0.36060833333333098</v>
-      </c>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>169</v>
       </c>
@@ -7315,11 +7180,8 @@
       <c r="R124">
         <v>2109.323249</v>
       </c>
-      <c r="S124">
-        <v>0.66306583333333402</v>
-      </c>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>170</v>
       </c>
@@ -7371,11 +7233,8 @@
       <c r="R125">
         <v>2172.916725</v>
       </c>
-      <c r="S125">
-        <v>0.57845083333333402</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>171</v>
       </c>
@@ -7427,11 +7286,8 @@
       <c r="R126">
         <v>2223.2557160000001</v>
       </c>
-      <c r="S126">
-        <v>-0.26296916666667802</v>
-      </c>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>172</v>
       </c>
@@ -7483,11 +7339,8 @@
       <c r="R127">
         <v>2285.131433</v>
       </c>
-      <c r="S127">
-        <v>2.43929166666666</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>173</v>
       </c>
@@ -7539,11 +7392,8 @@
       <c r="R128">
         <v>2344.2615839999999</v>
       </c>
-      <c r="S128">
-        <v>2.51873999999999</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>174</v>
       </c>
@@ -7595,11 +7445,8 @@
       <c r="R129">
         <v>2413.2887460000002</v>
       </c>
-      <c r="S129">
-        <v>3.33784666666666</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>175</v>
       </c>
@@ -7651,11 +7498,8 @@
       <c r="R130">
         <v>2479.5954430000002</v>
       </c>
-      <c r="S130">
-        <v>3.10654083333334</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>176</v>
       </c>
@@ -7707,11 +7551,8 @@
       <c r="R131">
         <v>2562.373681</v>
       </c>
-      <c r="S131">
-        <v>2.3094225000000099</v>
-      </c>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>177</v>
       </c>
@@ -7763,11 +7604,8 @@
       <c r="R132">
         <v>2639.8152439999999</v>
       </c>
-      <c r="S132">
-        <v>1.5256766666666799</v>
-      </c>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>178</v>
       </c>
@@ -7819,11 +7657,8 @@
       <c r="R133">
         <v>2708.8784639999999</v>
       </c>
-      <c r="S133">
-        <v>1.37828999999999</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>179</v>
       </c>
@@ -7875,11 +7710,8 @@
       <c r="R134">
         <v>2784.0217789999901</v>
       </c>
-      <c r="S134">
-        <v>1.22371916666665</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>180</v>
       </c>
@@ -7931,11 +7763,8 @@
       <c r="R135">
         <v>2866.5326500000001</v>
       </c>
-      <c r="S135">
-        <v>-2.7384550000000001</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>181</v>
       </c>
@@ -7987,11 +7816,8 @@
       <c r="R136">
         <v>2944.5695179999998</v>
       </c>
-      <c r="S136">
-        <v>-4.4319383333333304</v>
-      </c>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>182</v>
       </c>
@@ -8043,11 +7869,8 @@
       <c r="R137">
         <v>3036.4104010000001</v>
       </c>
-      <c r="S137">
-        <v>-1.9756466666666599</v>
-      </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>183</v>
       </c>
@@ -8099,11 +7922,8 @@
       <c r="R138">
         <v>3126.3115320000002</v>
       </c>
-      <c r="S138">
-        <v>-2.37386916666666</v>
-      </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>184</v>
       </c>
@@ -8155,11 +7975,8 @@
       <c r="R139">
         <v>3208.3339620000002</v>
       </c>
-      <c r="S139">
-        <v>-2.74078166666667</v>
-      </c>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>185</v>
       </c>
@@ -8211,11 +8028,8 @@
       <c r="R140">
         <v>3290.6037350000001</v>
       </c>
-      <c r="S140">
-        <v>-2.6190408333333099</v>
-      </c>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>186</v>
       </c>
@@ -8267,11 +8081,8 @@
       <c r="R141">
         <v>3371.1634009999998</v>
       </c>
-      <c r="S141">
-        <v>-4.9268233333333296</v>
-      </c>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>187</v>
       </c>
@@ -8323,11 +8134,8 @@
       <c r="R142">
         <v>3442.7524869999902</v>
       </c>
-      <c r="S142">
-        <v>-6.8240274999999997</v>
-      </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>188</v>
       </c>
@@ -8379,11 +8187,8 @@
       <c r="R143">
         <v>3513.7869289999999</v>
       </c>
-      <c r="S143">
-        <v>-7.9142258333333402</v>
-      </c>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>189</v>
       </c>
@@ -8435,11 +8240,8 @@
       <c r="R144">
         <v>3590.9186100000002</v>
       </c>
-      <c r="S144">
-        <v>-8.9808808333333499</v>
-      </c>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>190</v>
       </c>
@@ -8491,11 +8293,8 @@
       <c r="R145">
         <v>3656.536525</v>
       </c>
-      <c r="S145">
-        <v>-10.172499166666601</v>
-      </c>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>191</v>
       </c>
@@ -8547,11 +8346,8 @@
       <c r="R146">
         <v>3712.5106619999901</v>
       </c>
-      <c r="S146">
-        <v>-9.0769183333333299</v>
-      </c>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>192</v>
       </c>
@@ -8603,11 +8399,8 @@
       <c r="R147">
         <v>3769.3899219999998</v>
       </c>
-      <c r="S147">
-        <v>-7.1706174999999996</v>
-      </c>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>193</v>
       </c>
@@ -8659,11 +8452,8 @@
       <c r="R148">
         <v>3840.055061</v>
       </c>
-      <c r="S148">
-        <v>-4.44016583333332</v>
-      </c>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>194</v>
       </c>
@@ -8715,11 +8505,8 @@
       <c r="R149">
         <v>3901.1061799999902</v>
       </c>
-      <c r="S149">
-        <v>-2.3465525</v>
-      </c>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>195</v>
       </c>
@@ -8771,11 +8558,8 @@
       <c r="R150">
         <v>3974.2638459999998</v>
       </c>
-      <c r="S150">
-        <v>-0.13724333333334399</v>
-      </c>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>196</v>
       </c>
@@ -8827,11 +8611,8 @@
       <c r="R151">
         <v>4043.3373579999902</v>
       </c>
-      <c r="S151">
-        <v>0.85581750000000001</v>
-      </c>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>197</v>
       </c>
@@ -8883,11 +8664,8 @@
       <c r="R152">
         <v>4115.627759</v>
       </c>
-      <c r="S152">
-        <v>1.0203941666666601</v>
-      </c>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>198</v>
       </c>
@@ -8939,11 +8717,8 @@
       <c r="R153">
         <v>4183.5817029999998</v>
       </c>
-      <c r="S153">
-        <v>0.53422916666666198</v>
-      </c>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>199</v>
       </c>
@@ -8995,11 +8770,8 @@
       <c r="R154">
         <v>4262.6752850000003</v>
       </c>
-      <c r="S154">
-        <v>9.8650833333323307E-2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>200</v>
       </c>
@@ -9051,11 +8823,8 @@
       <c r="R155">
         <v>4328.1549059999998</v>
       </c>
-      <c r="S155">
-        <v>-0.59628416666664896</v>
-      </c>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>201</v>
       </c>
@@ -9107,11 +8876,8 @@
       <c r="R156">
         <v>4392.479155</v>
       </c>
-      <c r="S156">
-        <v>-1.3459975000000099</v>
-      </c>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>202</v>
       </c>
@@ -9163,11 +8929,8 @@
       <c r="R157">
         <v>4455.1133170000003</v>
       </c>
-      <c r="S157">
-        <v>-1.4070425</v>
-      </c>
-    </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>203</v>
       </c>
@@ -9219,11 +8982,8 @@
       <c r="R158">
         <v>4515.1490439999998</v>
       </c>
-      <c r="S158">
-        <v>-1.2851033333333299</v>
-      </c>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>204</v>
       </c>
@@ -9275,11 +9035,8 @@
       <c r="R159">
         <v>4569.816417</v>
       </c>
-      <c r="S159">
-        <v>-1.9902658333333301</v>
-      </c>
-    </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>205</v>
       </c>
@@ -9331,11 +9088,8 @@
       <c r="R160">
         <v>4626.1940379999996</v>
       </c>
-      <c r="S160">
-        <v>-1.87504916666667</v>
-      </c>
-    </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>206</v>
       </c>
@@ -9387,11 +9141,8 @@
       <c r="R161">
         <v>4689.2588850000002</v>
       </c>
-      <c r="S161">
-        <v>-1.23339666666667</v>
-      </c>
-    </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>207</v>
       </c>
@@ -9443,11 +9194,8 @@
       <c r="R162">
         <v>4757.3731019999996</v>
       </c>
-      <c r="S162">
-        <v>-0.495587500000013</v>
-      </c>
-    </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>208</v>
       </c>
@@ -9499,11 +9247,8 @@
       <c r="R163">
         <v>4828.5929640000004</v>
       </c>
-      <c r="S163">
-        <v>0.52839333333334004</v>
-      </c>
-    </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>209</v>
       </c>
@@ -9555,11 +9300,8 @@
       <c r="R164">
         <v>4903.6704259999997</v>
       </c>
-      <c r="S164">
-        <v>1.6231324999999901</v>
-      </c>
-    </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>210</v>
       </c>
@@ -9611,11 +9353,8 @@
       <c r="R165">
         <v>4981.7766700000002</v>
       </c>
-      <c r="S165">
-        <v>3.17699166666665</v>
-      </c>
-    </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>211</v>
       </c>
@@ -9667,11 +9406,8 @@
       <c r="R166">
         <v>5060.2075560000003</v>
       </c>
-      <c r="S166">
-        <v>3.6767933333333298</v>
-      </c>
-    </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>212</v>
       </c>
@@ -9723,11 +9459,8 @@
       <c r="R167">
         <v>5149.3756999999996</v>
       </c>
-      <c r="S167">
-        <v>4.3078399999999899</v>
-      </c>
-    </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>213</v>
       </c>
@@ -9779,11 +9512,8 @@
       <c r="R168">
         <v>5251.528894</v>
       </c>
-      <c r="S168">
-        <v>4.5532658333333398</v>
-      </c>
-    </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>214</v>
       </c>
@@ -9835,11 +9565,8 @@
       <c r="R169">
         <v>5338.2009420000004</v>
       </c>
-      <c r="S169">
-        <v>5.0235366666666703</v>
-      </c>
-    </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>215</v>
       </c>
@@ -9891,11 +9618,8 @@
       <c r="R170">
         <v>5435.697811</v>
       </c>
-      <c r="S170">
-        <v>5.1605549999999996</v>
-      </c>
-    </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>216</v>
       </c>
@@ -9947,11 +9671,8 @@
       <c r="R171">
         <v>5535.86913</v>
       </c>
-      <c r="S171">
-        <v>4.4437308333333396</v>
-      </c>
-    </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>217</v>
       </c>
@@ -10003,11 +9724,8 @@
       <c r="R172">
         <v>5618.9537499999997</v>
       </c>
-      <c r="S172">
-        <v>3.4258233333333101</v>
-      </c>
-    </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>218</v>
       </c>
@@ -10059,11 +9777,8 @@
       <c r="R173">
         <v>5701.639795</v>
       </c>
-      <c r="S173">
-        <v>3.1964208333333302</v>
-      </c>
-    </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>219</v>
       </c>
@@ -10115,11 +9830,8 @@
       <c r="R174">
         <v>5805.9271710000003</v>
       </c>
-      <c r="S174">
-        <v>3.2527041666666698</v>
-      </c>
-    </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>220</v>
       </c>
@@ -10171,11 +9883,8 @@
       <c r="R175">
         <v>5913.4797399999998</v>
       </c>
-      <c r="S175">
-        <v>3.2102483333333298</v>
-      </c>
-    </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>221</v>
       </c>
@@ -10227,11 +9936,8 @@
       <c r="R176">
         <v>6006.0104849999998</v>
       </c>
-      <c r="S176">
-        <v>2.9655900000000002</v>
-      </c>
-    </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>222</v>
       </c>
@@ -10283,11 +9989,8 @@
       <c r="R177">
         <v>6091.7236670000002</v>
       </c>
-      <c r="S177">
-        <v>1.3320308333333299</v>
-      </c>
-    </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>223</v>
       </c>
@@ -10339,11 +10042,8 @@
       <c r="R178">
         <v>6191.9116809999996</v>
       </c>
-      <c r="S178">
-        <v>-0.444068333333348</v>
-      </c>
-    </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>224</v>
       </c>
@@ -10395,11 +10095,8 @@
       <c r="R179">
         <v>6277.1077580000001</v>
       </c>
-      <c r="S179">
-        <v>-0.21510166666665401</v>
-      </c>
-    </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>225</v>
       </c>
@@ -10451,11 +10148,8 @@
       <c r="R180">
         <v>6365.4781419999999</v>
       </c>
-      <c r="S180">
-        <v>0.67291500000000304</v>
-      </c>
-    </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>226</v>
       </c>
@@ -10507,11 +10201,8 @@
       <c r="R181">
         <v>6442.9497009999995</v>
       </c>
-      <c r="S181">
-        <v>0.47854833333332097</v>
-      </c>
-    </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>227</v>
       </c>
@@ -10563,11 +10254,8 @@
       <c r="R182">
         <v>6506.7752700000001</v>
       </c>
-      <c r="S182">
-        <v>-0.16788833333335099</v>
-      </c>
-    </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>228</v>
       </c>
@@ -10619,11 +10307,8 @@
       <c r="R183">
         <v>6586.491822</v>
       </c>
-      <c r="S183">
-        <v>0.59363749999999904</v>
-      </c>
-    </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>229</v>
       </c>
@@ -10675,11 +10360,8 @@
       <c r="R184">
         <v>6660.1796020000002</v>
       </c>
-      <c r="S184">
-        <v>0.49676999999999699</v>
-      </c>
-    </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>230</v>
       </c>
@@ -10731,11 +10413,8 @@
       <c r="R185">
         <v>6748.6188319999901</v>
       </c>
-      <c r="S185">
-        <v>0.580768333333324</v>
-      </c>
-    </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>231</v>
       </c>
@@ -10787,11 +10466,8 @@
       <c r="R186">
         <v>6829.8161959999998</v>
       </c>
-      <c r="S186">
-        <v>0.67437999999999898</v>
-      </c>
-    </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>232</v>
       </c>
@@ -10843,11 +10519,8 @@
       <c r="R187">
         <v>6915.2896099999998</v>
       </c>
-      <c r="S187">
-        <v>0.29727499999999901</v>
-      </c>
-    </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>233</v>
       </c>
@@ -10899,11 +10572,8 @@
       <c r="R188">
         <v>7002.2222299999903</v>
       </c>
-      <c r="S188">
-        <v>0.137911666666681</v>
-      </c>
-    </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>234</v>
       </c>
@@ -10955,11 +10625,8 @@
       <c r="R189">
         <v>7087.1289349999997</v>
       </c>
-      <c r="S189">
-        <v>0.86884750000000099</v>
-      </c>
-    </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>235</v>
       </c>
@@ -11011,11 +10678,8 @@
       <c r="R190">
         <v>7168.7985559999997</v>
       </c>
-      <c r="S190">
-        <v>1.25678666666667</v>
-      </c>
-    </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>236</v>
       </c>
@@ -11067,11 +10731,8 @@
       <c r="R191">
         <v>7251.8065569999899</v>
       </c>
-      <c r="S191">
-        <v>2.0274124999999898</v>
-      </c>
-    </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>237</v>
       </c>
@@ -11123,11 +10784,8 @@
       <c r="R192">
         <v>7343.2918540000001</v>
       </c>
-      <c r="S192">
-        <v>2.2570833333333402</v>
-      </c>
-    </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>238</v>
       </c>
@@ -11179,11 +10837,8 @@
       <c r="R193">
         <v>7434.1555840000001</v>
       </c>
-      <c r="S193">
-        <v>3.0288124999999999</v>
-      </c>
-    </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>239</v>
       </c>
@@ -11235,11 +10890,8 @@
       <c r="R194">
         <v>7526.2459250000002</v>
       </c>
-      <c r="S194">
-        <v>2.9491416666666601</v>
-      </c>
-    </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>240</v>
       </c>
@@ -11291,11 +10943,8 @@
       <c r="R195">
         <v>7615.5385819999901</v>
       </c>
-      <c r="S195">
-        <v>2.2369383333333199</v>
-      </c>
-    </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>241</v>
       </c>
@@ -11347,11 +10996,8 @@
       <c r="R196">
         <v>7706.9652889999998</v>
       </c>
-      <c r="S196">
-        <v>1.98530416666666</v>
-      </c>
-    </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>242</v>
       </c>
@@ -11403,11 +11049,8 @@
       <c r="R197">
         <v>7799.8132290000003</v>
       </c>
-      <c r="S197">
-        <v>1.5173808333333301</v>
-      </c>
-    </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>243</v>
       </c>
@@ -11459,11 +11102,8 @@
       <c r="R198">
         <v>7894.5567289999999</v>
       </c>
-      <c r="S198">
-        <v>0.861476666666675</v>
-      </c>
-    </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>244</v>
       </c>
@@ -11515,11 +11155,8 @@
       <c r="R199">
         <v>7988.2158040000004</v>
       </c>
-      <c r="S199">
-        <v>1.3489425000000199</v>
-      </c>
-    </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>245</v>
       </c>
@@ -11571,11 +11208,8 @@
       <c r="R200">
         <v>8079.9808890000004</v>
       </c>
-      <c r="S200">
-        <v>1.1529433333333099</v>
-      </c>
-    </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>246</v>
       </c>
@@ -11627,11 +11261,8 @@
       <c r="R201">
         <v>8193.5555000000004</v>
       </c>
-      <c r="S201">
-        <v>1.05867666666668</v>
-      </c>
-    </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>247</v>
       </c>
@@ -11683,11 +11314,8 @@
       <c r="R202">
         <v>8317.3596129999896</v>
       </c>
-      <c r="S202">
-        <v>1.3176650000000001</v>
-      </c>
-    </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>248</v>
       </c>
@@ -11739,11 +11367,8 @@
       <c r="R203">
         <v>8412.5565750000005</v>
       </c>
-      <c r="S203">
-        <v>1.1651975000000001</v>
-      </c>
-    </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>249</v>
       </c>
@@ -11795,11 +11420,8 @@
       <c r="R204">
         <v>8532.1647819999998</v>
       </c>
-      <c r="S204">
-        <v>1.6016366666666599</v>
-      </c>
-    </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>250</v>
       </c>
@@ -11851,11 +11473,8 @@
       <c r="R205">
         <v>8646.776124</v>
       </c>
-      <c r="S205">
-        <v>2.0569649999999902</v>
-      </c>
-    </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>251</v>
       </c>
@@ -11910,11 +11529,8 @@
       <c r="R206">
         <v>8748.0520730000007</v>
       </c>
-      <c r="S206">
-        <v>1.29724833333332</v>
-      </c>
-    </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>252</v>
       </c>
@@ -11969,11 +11585,8 @@
       <c r="R207">
         <v>8860.6284070000002</v>
       </c>
-      <c r="S207">
-        <v>0.259667499999991</v>
-      </c>
-    </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>253</v>
       </c>
@@ -12028,11 +11641,8 @@
       <c r="R208">
         <v>8992.1209699999999</v>
       </c>
-      <c r="S208">
-        <v>-0.44330083333333897</v>
-      </c>
-    </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>254</v>
       </c>
@@ -12087,11 +11697,8 @@
       <c r="R209">
         <v>9113.5932269999994</v>
       </c>
-      <c r="S209">
-        <v>-0.40578749999998798</v>
-      </c>
-    </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>255</v>
       </c>
@@ -12146,11 +11753,8 @@
       <c r="R210">
         <v>9241.4633269999995</v>
       </c>
-      <c r="S210">
-        <v>-0.43371583333333702</v>
-      </c>
-    </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>256</v>
       </c>
@@ -12205,11 +11809,8 @@
       <c r="R211">
         <v>9376.48514599999</v>
       </c>
-      <c r="S211">
-        <v>-0.53743249999999398</v>
-      </c>
-    </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>257</v>
       </c>
@@ -12264,11 +11865,8 @@
       <c r="R212">
         <v>9511.2070379999896</v>
       </c>
-      <c r="S212">
-        <v>-0.67576166666665904</v>
-      </c>
-    </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>258</v>
       </c>
@@ -12323,11 +11921,8 @@
       <c r="R213">
         <v>9667.9043450000008</v>
       </c>
-      <c r="S213">
-        <v>-0.144815833333339</v>
-      </c>
-    </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>259</v>
       </c>
@@ -12382,11 +11977,8 @@
       <c r="R214">
         <v>9837.7982300000003</v>
       </c>
-      <c r="S214">
-        <v>-0.221549166666662</v>
-      </c>
-    </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>260</v>
       </c>
@@ -12441,11 +12033,8 @@
       <c r="R215">
         <v>10002.464250000001</v>
       </c>
-      <c r="S215">
-        <v>-5.8244999999999401E-2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>261</v>
       </c>
@@ -12500,11 +12089,8 @@
       <c r="R216">
         <v>10160.78751</v>
       </c>
-      <c r="S216">
-        <v>-0.87602916666666797</v>
-      </c>
-    </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>262</v>
       </c>
@@ -12559,11 +12145,8 @@
       <c r="R217">
         <v>10310.7019599999</v>
       </c>
-      <c r="S217">
-        <v>-1.84311000000001</v>
-      </c>
-    </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>263</v>
       </c>
@@ -12618,11 +12201,8 @@
       <c r="R218">
         <v>10469.673650000001</v>
       </c>
-      <c r="S218">
-        <v>-3.5500641666666701</v>
-      </c>
-    </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>264</v>
       </c>
@@ -12677,11 +12257,8 @@
       <c r="R219">
         <v>10618.901400000001</v>
       </c>
-      <c r="S219">
-        <v>-5.1644716666666701</v>
-      </c>
-    </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>265</v>
       </c>
@@ -12736,11 +12313,8 @@
       <c r="R220">
         <v>10742.049279999999</v>
       </c>
-      <c r="S220">
-        <v>-6.74364416666665</v>
-      </c>
-    </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>266</v>
       </c>
@@ -12795,11 +12369,8 @@
       <c r="R221">
         <v>10852.96509</v>
       </c>
-      <c r="S221">
-        <v>-7.9103733333333199</v>
-      </c>
-    </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>267</v>
       </c>
@@ -12854,11 +12425,8 @@
       <c r="R222">
         <v>10960.516659999999</v>
       </c>
-      <c r="S222">
-        <v>-7.65268999999999</v>
-      </c>
-    </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>268</v>
       </c>
@@ -12913,11 +12481,8 @@
       <c r="R223">
         <v>11069.773999999999</v>
       </c>
-      <c r="S223">
-        <v>-6.6068483333333301</v>
-      </c>
-    </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>269</v>
       </c>
@@ -12972,11 +12537,8 @@
       <c r="R224">
         <v>11192.443229999901</v>
       </c>
-      <c r="S224">
-        <v>-6.0908658333333303</v>
-      </c>
-    </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>270</v>
       </c>
@@ -13031,11 +12593,8 @@
       <c r="R225">
         <v>11326.62543</v>
       </c>
-      <c r="S225">
-        <v>-5.9148858333333401</v>
-      </c>
-    </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>271</v>
       </c>
@@ -13090,11 +12649,8 @@
       <c r="R226">
         <v>11451.72941</v>
       </c>
-      <c r="S226">
-        <v>-5.1988241666666601</v>
-      </c>
-    </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>272</v>
       </c>
@@ -13149,11 +12705,8 @@
       <c r="R227">
         <v>11562.500539999999</v>
       </c>
-      <c r="S227">
-        <v>-5.5145024999999697</v>
-      </c>
-    </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>273</v>
       </c>
@@ -13208,11 +12761,8 @@
       <c r="R228">
         <v>11699.594999999999</v>
       </c>
-      <c r="S228">
-        <v>-4.8360033333333297</v>
-      </c>
-    </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>274</v>
       </c>
@@ -13267,11 +12817,8 @@
       <c r="R229">
         <v>11843.26613</v>
       </c>
-      <c r="S229">
-        <v>-3.9592608333333299</v>
-      </c>
-    </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>275</v>
       </c>
@@ -13326,11 +12873,8 @@
       <c r="R230">
         <v>12002.115690000001</v>
       </c>
-      <c r="S230">
-        <v>-3.2790908333333202</v>
-      </c>
-    </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>276</v>
       </c>
@@ -13385,11 +12929,8 @@
       <c r="R231">
         <v>12174.96017</v>
       </c>
-      <c r="S231">
-        <v>-2.6805366666666499</v>
-      </c>
-    </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>277</v>
       </c>
@@ -13444,11 +12985,8 @@
       <c r="R232">
         <v>12330.283740000001</v>
       </c>
-      <c r="S232">
-        <v>-2.0913999999999899</v>
-      </c>
-    </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>278</v>
       </c>
@@ -13503,11 +13041,8 @@
       <c r="R233">
         <v>12505.216259999999</v>
       </c>
-      <c r="S233">
-        <v>-0.92411833333332505</v>
-      </c>
-    </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>279</v>
       </c>
@@ -13562,11 +13097,8 @@
       <c r="R234">
         <v>12683.22687</v>
       </c>
-      <c r="S234">
-        <v>0.13234249999999201</v>
-      </c>
-    </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>280</v>
       </c>
@@ -13621,11 +13153,8 @@
       <c r="R235">
         <v>12850.620199999999</v>
       </c>
-      <c r="S235">
-        <v>0.39464749999998999</v>
-      </c>
-    </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>281</v>
       </c>
@@ -13680,11 +13209,8 @@
       <c r="R236">
         <v>13042.589889999999</v>
       </c>
-      <c r="S236">
-        <v>-0.200717499999996</v>
-      </c>
-    </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>282</v>
       </c>
@@ -13739,11 +13265,8 @@
       <c r="R237">
         <v>13223.02454</v>
       </c>
-      <c r="S237">
-        <v>0.23530499999999599</v>
-      </c>
-    </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>283</v>
       </c>
@@ -13798,11 +13321,8 @@
       <c r="R238">
         <v>13387.825409999999</v>
       </c>
-      <c r="S238">
-        <v>0.68554250000001105</v>
-      </c>
-    </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>284</v>
       </c>
@@ -13857,11 +13377,8 @@
       <c r="R239">
         <v>13574.2659199999</v>
       </c>
-      <c r="S239">
-        <v>0.82344833333331702</v>
-      </c>
-    </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>285</v>
       </c>
@@ -13916,11 +13433,8 @@
       <c r="R240">
         <v>13735.82524</v>
       </c>
-      <c r="S240">
-        <v>0.75661333333334801</v>
-      </c>
-    </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>286</v>
       </c>
@@ -13975,11 +13489,8 @@
       <c r="R241">
         <v>13848.42834</v>
       </c>
-      <c r="S241">
-        <v>0.49674333333334098</v>
-      </c>
-    </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>287</v>
       </c>
@@ -14034,11 +13545,8 @@
       <c r="R242">
         <v>14045.73165</v>
       </c>
-      <c r="S242">
-        <v>0.851696666666654</v>
-      </c>
-    </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>288</v>
       </c>
@@ -14093,11 +13601,8 @@
       <c r="R243">
         <v>14212.10318</v>
       </c>
-      <c r="S243">
-        <v>1.40179916666667</v>
-      </c>
-    </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>289</v>
       </c>
@@ -14152,11 +13657,8 @@
       <c r="R244">
         <v>14361.15186</v>
       </c>
-      <c r="S244">
-        <v>1.3119049999999901</v>
-      </c>
-    </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>290</v>
       </c>
@@ -14211,11 +13713,8 @@
       <c r="R245">
         <v>14491.58066</v>
       </c>
-      <c r="S245">
-        <v>1.5605916666666599</v>
-      </c>
-    </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>291</v>
       </c>
@@ -14270,11 +13769,8 @@
       <c r="R246">
         <v>14618.168019999999</v>
       </c>
-      <c r="S246">
-        <v>1.44882500000001</v>
-      </c>
-    </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>292</v>
       </c>
@@ -14329,11 +13825,8 @@
       <c r="R247">
         <v>14761.03608</v>
       </c>
-      <c r="S247">
-        <v>0.398361666666673</v>
-      </c>
-    </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>293</v>
       </c>
@@ -14388,11 +13881,8 @@
       <c r="R248">
         <v>14942.714379999999</v>
       </c>
-      <c r="S248">
-        <v>-2.12883333333333</v>
-      </c>
-    </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>294</v>
       </c>
@@ -14447,11 +13937,8 @@
       <c r="R249">
         <v>15046.2381</v>
       </c>
-      <c r="S249">
-        <v>-5.4839849999999997</v>
-      </c>
-    </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>295</v>
       </c>
@@ -14506,11 +13993,8 @@
       <c r="R250">
         <v>15096.6798</v>
       </c>
-      <c r="S250">
-        <v>-9.5584516666666701</v>
-      </c>
-    </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>296</v>
       </c>
@@ -14565,11 +14049,8 @@
       <c r="R251">
         <v>15130.24626</v>
       </c>
-      <c r="S251">
-        <v>-11.28121</v>
-      </c>
-    </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>297</v>
       </c>
@@ -14624,11 +14105,8 @@
       <c r="R252">
         <v>15203.519689999999</v>
       </c>
-      <c r="S252">
-        <v>-9.8159524999999892</v>
-      </c>
-    </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>298</v>
       </c>
@@ -14683,11 +14161,8 @@
       <c r="R253">
         <v>15305.270699999999</v>
       </c>
-      <c r="S253">
-        <v>-8.0910066666666491</v>
-      </c>
-    </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>299</v>
       </c>
@@ -14742,11 +14217,8 @@
       <c r="R254">
         <v>15403.516519999999</v>
       </c>
-      <c r="S254">
-        <v>-6.0259866666666602</v>
-      </c>
-    </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="255" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>300</v>
       </c>
@@ -14801,11 +14273,8 @@
       <c r="R255">
         <v>15533.996590000001</v>
       </c>
-      <c r="S255">
-        <v>-3.9980841666666498</v>
-      </c>
-    </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>301</v>
       </c>
@@ -14860,11 +14329,8 @@
       <c r="R256">
         <v>15638.957419999901</v>
       </c>
-      <c r="S256">
-        <v>-2.4868233333333301</v>
-      </c>
-    </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="257" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>302</v>
       </c>
@@ -14919,11 +14385,8 @@
       <c r="R257">
         <v>15789.3742699999</v>
       </c>
-      <c r="S257">
-        <v>-1.7831791666666701</v>
-      </c>
-    </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="258" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>303</v>
       </c>
@@ -14978,11 +14441,8 @@
       <c r="R258">
         <v>15931.952219999999</v>
       </c>
-      <c r="S258">
-        <v>-1.1826191666666599</v>
-      </c>
-    </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="259" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>304</v>
       </c>
@@ -15037,11 +14497,8 @@
       <c r="R259">
         <v>16101.2166699999</v>
       </c>
-      <c r="S259">
-        <v>-0.887031666666658</v>
-      </c>
-    </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>305</v>
       </c>
@@ -15096,11 +14553,8 @@
       <c r="R260">
         <v>16264.438630000001</v>
       </c>
-      <c r="S260">
-        <v>-0.249489166666677</v>
-      </c>
-    </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="261" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>306</v>
       </c>
@@ -15155,11 +14609,8 @@
       <c r="R261">
         <v>16351.6132</v>
       </c>
-      <c r="S261">
-        <v>0.125794166666651</v>
-      </c>
-    </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="262" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>307</v>
       </c>
@@ -15214,11 +14665,8 @@
       <c r="R262">
         <v>16517.1281099999</v>
       </c>
-      <c r="S262">
-        <v>0.38917083333333802</v>
-      </c>
-    </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="263" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>308</v>
       </c>
@@ -15273,11 +14721,8 @@
       <c r="R263">
         <v>16657.125209999998</v>
       </c>
-      <c r="S263">
-        <v>0.38375999999999499</v>
-      </c>
-    </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="264" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>309</v>
       </c>
@@ -15332,11 +14777,8 @@
       <c r="R264">
         <v>16822.157350000001</v>
       </c>
-      <c r="S264">
-        <v>-8.1271666666665895E-2</v>
-      </c>
-    </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="265" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>310</v>
       </c>
@@ -15391,11 +14833,8 @@
       <c r="R265">
         <v>16981.95275</v>
       </c>
-      <c r="S265">
-        <v>-0.127834166666659</v>
-      </c>
-    </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="266" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>311</v>
       </c>
@@ -15450,11 +14889,8 @@
       <c r="R266">
         <v>17126.82044</v>
       </c>
-      <c r="S266">
-        <v>9.0168333333337999E-2</v>
-      </c>
-    </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="267" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>312</v>
       </c>
@@ -15509,11 +14945,8 @@
       <c r="R267">
         <v>17242.403119999999</v>
       </c>
-      <c r="S267">
-        <v>0.13181749999999601</v>
-      </c>
-    </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="268" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>313</v>
       </c>
@@ -15568,11 +15001,8 @@
       <c r="R268">
         <v>17406.678759999999</v>
       </c>
-      <c r="S268">
-        <v>0.202721666666661</v>
-      </c>
-    </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="269" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>314</v>
       </c>
@@ -15627,11 +15057,8 @@
       <c r="R269">
         <v>17580.204669999999</v>
       </c>
-      <c r="S269">
-        <v>0.51891416666666101</v>
-      </c>
-    </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="270" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>315</v>
       </c>
@@ -15686,11 +15113,8 @@
       <c r="R270">
         <v>17729.745340000001</v>
       </c>
-      <c r="S270">
-        <v>0.85072333333333405</v>
-      </c>
-    </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="271" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>316</v>
       </c>
@@ -15745,11 +15169,8 @@
       <c r="R271">
         <v>17914.59679</v>
       </c>
-      <c r="S271">
-        <v>1.6907924999999999</v>
-      </c>
-    </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="272" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>317</v>
       </c>
@@ -15804,11 +15225,8 @@
       <c r="R272">
         <v>18074.92195</v>
       </c>
-      <c r="S272">
-        <v>1.8846341666666699</v>
-      </c>
-    </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="273" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>318</v>
       </c>
@@ -15863,11 +15281,8 @@
       <c r="R273">
         <v>18181.00086</v>
       </c>
-      <c r="S273">
-        <v>2.1338224999999902</v>
-      </c>
-    </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="274" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>319</v>
       </c>
@@ -15922,11 +15337,8 @@
       <c r="R274">
         <v>18260.110290000001</v>
       </c>
-      <c r="S274">
-        <v>1.19472166666668</v>
-      </c>
-    </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="275" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>320</v>
       </c>
@@ -15981,11 +15393,8 @@
       <c r="R275">
         <v>18455.77965</v>
       </c>
-      <c r="S275">
-        <v>0.19019583333333401</v>
-      </c>
-    </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="276" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>321</v>
       </c>
@@ -16040,11 +15449,8 @@
       <c r="R276">
         <v>18596.21773</v>
       </c>
-      <c r="S276">
-        <v>0.361814999999992</v>
-      </c>
-    </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="277" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>322</v>
       </c>
@@ -16099,11 +15505,8 @@
       <c r="R277">
         <v>18687.608230000002</v>
       </c>
-      <c r="S277">
-        <v>-0.53896749999999805</v>
-      </c>
-    </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="278" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>323</v>
       </c>
@@ -16158,11 +15561,8 @@
       <c r="R278">
         <v>18763.324339999999</v>
       </c>
-      <c r="S278">
-        <v>-0.88720750000000204</v>
-      </c>
-    </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="279" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>324</v>
       </c>
@@ -16217,11 +15617,8 @@
       <c r="R279">
         <v>18983.64286</v>
       </c>
-      <c r="S279">
-        <v>-1.04759583333333</v>
-      </c>
-    </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="280" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>325</v>
       </c>
@@ -16276,11 +15673,8 @@
       <c r="R280">
         <v>19125.0067099999</v>
       </c>
-      <c r="S280">
-        <v>-0.85218666666666798</v>
-      </c>
-    </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="281" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>326</v>
       </c>
@@ -16335,11 +15729,8 @@
       <c r="R281">
         <v>19310.567069999899</v>
       </c>
-      <c r="S281">
-        <v>-0.94214333333334799</v>
-      </c>
-    </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="282" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>327</v>
       </c>
@@ -16394,11 +15785,8 @@
       <c r="R282">
         <v>19502.60772</v>
       </c>
-      <c r="S282">
-        <v>-0.83311166666666703</v>
-      </c>
-    </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="283" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>328</v>
       </c>
@@ -16453,11 +15841,8 @@
       <c r="R283">
         <v>19648.047930000001</v>
       </c>
-      <c r="S283">
-        <v>0.47224583333333198</v>
-      </c>
-    </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="284" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>329</v>
       </c>
@@ -16512,11 +15897,8 @@
       <c r="R284">
         <v>19846.550209999899</v>
       </c>
-      <c r="S284">
-        <v>0.52975583333333898</v>
-      </c>
-    </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="285" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>330</v>
       </c>
@@ -16571,11 +15953,8 @@
       <c r="R285">
         <v>20069.215560000001</v>
       </c>
-      <c r="S285">
-        <v>1.8948716666666501</v>
-      </c>
-    </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="286" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>331</v>
       </c>
@@ -16630,11 +16009,8 @@
       <c r="R286">
         <v>20300.652030000001</v>
       </c>
-      <c r="S286">
-        <v>2.5496958333333302</v>
-      </c>
-    </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="287" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>332</v>
       </c>
@@ -16689,11 +16065,8 @@
       <c r="R287">
         <v>20551.45563</v>
       </c>
-      <c r="S287">
-        <v>3.5392316666666499</v>
-      </c>
-    </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="288" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>333</v>
       </c>
@@ -16748,11 +16121,8 @@
       <c r="R288">
         <v>20749.390950000001</v>
       </c>
-      <c r="S288">
-        <v>4.0544049999999796</v>
-      </c>
-    </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="289" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>334</v>
       </c>
@@ -16807,11 +16177,8 @@
       <c r="R289">
         <v>20949.010419999999</v>
       </c>
-      <c r="S289">
-        <v>3.8773825000000102</v>
-      </c>
-    </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="290" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>335</v>
       </c>
@@ -16866,11 +16233,8 @@
       <c r="R290">
         <v>21123.413550000001</v>
       </c>
-      <c r="S290">
-        <v>2.62001666666665</v>
-      </c>
-    </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="291" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>336</v>
       </c>
@@ -16925,11 +16289,8 @@
       <c r="R291">
         <v>21344.738310000001</v>
       </c>
-      <c r="S291">
-        <v>1.5807024999999999</v>
-      </c>
-    </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="292" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>337</v>
       </c>
@@ -16984,11 +16345,8 @@
       <c r="R292">
         <v>21525.169300000001</v>
       </c>
-      <c r="S292">
-        <v>1.04900833333333</v>
-      </c>
-    </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="293" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>338</v>
       </c>
@@ -17043,11 +16401,8 @@
       <c r="R293">
         <v>21701.77879</v>
       </c>
-      <c r="S293">
-        <v>0.238385833333325</v>
-      </c>
-    </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="294" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>339</v>
       </c>
@@ -17102,11 +16457,8 @@
       <c r="R294">
         <v>21910.4794</v>
       </c>
-      <c r="S294">
-        <v>-1.2461916666666599</v>
-      </c>
-    </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="295" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>340</v>
       </c>
@@ -17161,11 +16513,8 @@
       <c r="R295">
         <v>21937.478340000001</v>
       </c>
-      <c r="S295">
-        <v>-10.507066666666599</v>
-      </c>
-    </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="296" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>341</v>
       </c>
@@ -17220,11 +16569,8 @@
       <c r="R296">
         <v>22236.468499999999</v>
       </c>
-      <c r="S296">
-        <v>-3.9408150000000002</v>
-      </c>
-    </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="297" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>342</v>
       </c>
@@ -17279,11 +16625,8 @@
       <c r="R297">
         <v>22496.5728099999</v>
       </c>
-      <c r="S297">
-        <v>-2.21587916666665</v>
-      </c>
-    </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="298" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>343</v>
       </c>
@@ -17338,11 +16681,8 @@
       <c r="R298">
         <v>22892.748960000001</v>
       </c>
-      <c r="S298">
-        <v>-1.59363083333332</v>
-      </c>
-    </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="299" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>344</v>
       </c>
@@ -17397,11 +16737,8 @@
       <c r="R299">
         <v>23362.233550000001</v>
       </c>
-      <c r="S299">
-        <v>5.5654999999987298E-2</v>
-      </c>
-    </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="300" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>345</v>
       </c>
@@ -17456,11 +16793,8 @@
       <c r="R300">
         <v>23835.078109999999</v>
       </c>
-      <c r="S300">
-        <v>0.70337083333332295</v>
-      </c>
-    </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="301" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>346</v>
       </c>
@@ -17515,11 +16849,8 @@
       <c r="R301">
         <v>24377.236430000001</v>
       </c>
-      <c r="S301">
-        <v>1.4992175000000001</v>
-      </c>
-    </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="302" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>347</v>
       </c>
@@ -17574,11 +16905,8 @@
       <c r="R302">
         <v>25006.127509999998</v>
       </c>
-      <c r="S302">
-        <v>1.7227249999999801</v>
-      </c>
-    </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="303" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>348</v>
       </c>
@@ -17633,11 +16961,8 @@
       <c r="R303">
         <v>25713.223440000002</v>
       </c>
-      <c r="S303">
-        <v>1.98078166666667</v>
-      </c>
-    </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="304" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>349</v>
       </c>
@@ -17692,11 +17017,8 @@
       <c r="R304">
         <v>26146.675080000001</v>
       </c>
-      <c r="S304">
-        <v>1.6952225000000101</v>
-      </c>
-    </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="305" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>350</v>
       </c>
@@ -17751,11 +17073,8 @@
       <c r="R305">
         <v>26536.55228</v>
       </c>
-      <c r="S305">
-        <v>0.96557333333332396</v>
-      </c>
-    </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="306" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>351</v>
       </c>
@@ -17810,11 +17129,8 @@
       <c r="R306">
         <v>26927.76916</v>
       </c>
-      <c r="S306">
-        <v>0.69529166666666198</v>
-      </c>
-    </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="307" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>352</v>
       </c>
@@ -17869,16 +17185,13 @@
       <c r="R307">
         <v>27202.53426</v>
       </c>
-      <c r="S307">
-        <v>0.44353833333332199</v>
-      </c>
-    </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="308" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M308" s="7"/>
       <c r="N308" s="5"/>
       <c r="O308" s="5"/>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.2">
       <c r="N309" s="5"/>
       <c r="O309" s="5"/>
     </row>
@@ -17889,10 +17202,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A502E475-8EEE-9B41-8582-BA225638D4DC}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18113,14 +17426,6 @@
       </c>
       <c r="C21" s="3" t="s">
         <v>364</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>368</v>
-      </c>
-      <c r="B22" t="s">
-        <v>367</v>
       </c>
     </row>
   </sheetData>
